--- a/academycity/data/avi/datasets/excel/world_bank/output/2019_Industry_o.xlsx
+++ b/academycity/data/avi/datasets/excel/world_bank/output/2019_Industry_o.xlsx
@@ -3639,10 +3639,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.026624</v>
+        <v>-0.030318</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.029419</v>
+        <v>-0.033605</v>
       </c>
     </row>
     <row r="3">
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002501</v>
+        <v>0.000351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004026</v>
+        <v>0.007427</v>
       </c>
     </row>
     <row r="4">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.017776</v>
+        <v>0.016435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.015876</v>
+        <v>0.021966</v>
       </c>
     </row>
     <row r="5">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003777</v>
+        <v>0.001694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002528</v>
+        <v>0.005589</v>
       </c>
     </row>
     <row r="6">
@@ -3703,10 +3703,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.061827</v>
+        <v>0.062821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.042359</v>
+        <v>0.054457</v>
       </c>
     </row>
     <row r="7">
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.009409000000000001</v>
+        <v>0.007625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007012</v>
+        <v>0.011091</v>
       </c>
     </row>
     <row r="8">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.423243</v>
+        <v>0.443389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.414628</v>
+        <v>0.511186</v>
       </c>
     </row>
     <row r="9">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.379137</v>
+        <v>0.396945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.372924</v>
+        <v>0.460021</v>
       </c>
     </row>
     <row r="10">
@@ -3767,10 +3767,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.043841</v>
+        <v>0.043882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04361</v>
+        <v>0.055992</v>
       </c>
     </row>
     <row r="11">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.274245</v>
+        <v>0.286495</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317612</v>
+        <v>0.392159</v>
       </c>
     </row>
     <row r="12">
@@ -3799,10 +3799,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.015645</v>
+        <v>-0.018757</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.009306999999999999</v>
+        <v>-0.008931</v>
       </c>
     </row>
     <row r="13">
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.033718</v>
+        <v>0.033222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.037954</v>
+        <v>0.049053</v>
       </c>
     </row>
     <row r="14">
@@ -3831,10 +3831,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.251585</v>
+        <v>0.262634</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256509</v>
+        <v>0.317194</v>
       </c>
     </row>
     <row r="15">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.025411</v>
+        <v>-0.02904</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.025547</v>
+        <v>-0.028856</v>
       </c>
     </row>
     <row r="16">
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.005316</v>
+        <v>-0.00788</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.003588</v>
+        <v>-0.001914</v>
       </c>
     </row>
     <row r="17">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01085</v>
+        <v>0.009143</v>
       </c>
       <c r="D17" t="n">
-        <v>0.014547</v>
+        <v>0.020335</v>
       </c>
     </row>
     <row r="18">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.046743</v>
+        <v>0.046937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.036528</v>
+        <v>0.047304</v>
       </c>
     </row>
     <row r="19">
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.021988</v>
+        <v>0.020871</v>
       </c>
       <c r="D19" t="n">
-        <v>0.021552</v>
+        <v>0.028929</v>
       </c>
     </row>
     <row r="20">
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.031208</v>
+        <v>0.030579</v>
       </c>
       <c r="D20" t="n">
-        <v>0.037064</v>
+        <v>0.047961</v>
       </c>
     </row>
     <row r="21">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.025812</v>
+        <v>-0.029462</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02495</v>
+        <v>-0.028123</v>
       </c>
     </row>
     <row r="22">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.030599</v>
+        <v>-0.034503</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.030915</v>
+        <v>-0.035441</v>
       </c>
     </row>
     <row r="23">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.015761</v>
+        <v>-0.018879</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.013321</v>
+        <v>-0.013856</v>
       </c>
     </row>
     <row r="24">
@@ -3991,10 +3991,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.019472</v>
+        <v>-0.022787</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.019913</v>
+        <v>-0.021943</v>
       </c>
     </row>
     <row r="25">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.334159</v>
+        <v>0.349584</v>
       </c>
     </row>
     <row r="26">
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.028754</v>
+        <v>-0.03256</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02887</v>
+        <v>-0.032932</v>
       </c>
     </row>
     <row r="27">
@@ -4036,10 +4036,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02871</v>
+        <v>-0.032514</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.028464</v>
+        <v>-0.032434</v>
       </c>
     </row>
     <row r="28">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09460300000000001</v>
+        <v>0.097334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09600499999999999</v>
+        <v>0.120275</v>
       </c>
     </row>
     <row r="29">
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.105403</v>
+        <v>0.108706</v>
       </c>
       <c r="D29" t="n">
-        <v>0.093918</v>
+        <v>0.117714</v>
       </c>
     </row>
     <row r="30">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02565</v>
+        <v>0.024727</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02202</v>
+        <v>0.029504</v>
       </c>
     </row>
     <row r="31">
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.024071</v>
+        <v>-0.027629</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02435</v>
+        <v>-0.027386</v>
       </c>
     </row>
     <row r="32">
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.005394</v>
+        <v>-0.007963</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0037</v>
+        <v>0.007027</v>
       </c>
     </row>
     <row r="33">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.049881</v>
+        <v>0.050242</v>
       </c>
       <c r="D33" t="n">
-        <v>0.046511</v>
+        <v>0.059552</v>
       </c>
     </row>
     <row r="34">
@@ -4148,10 +4148,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01426</v>
+        <v>-0.017298</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.016456</v>
+        <v>-0.017702</v>
       </c>
     </row>
     <row r="35">
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.069128</v>
+        <v>0.070508</v>
       </c>
       <c r="D35" t="n">
-        <v>0.066371</v>
+        <v>0.08391700000000001</v>
       </c>
     </row>
     <row r="36">
@@ -4180,10 +4180,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.026782</v>
+        <v>0.025919</v>
       </c>
       <c r="D36" t="n">
-        <v>0.040315</v>
+        <v>0.05195</v>
       </c>
     </row>
     <row r="37">
@@ -4196,10 +4196,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.061187</v>
+        <v>0.062147</v>
       </c>
       <c r="D37" t="n">
-        <v>0.056079</v>
+        <v>0.07129000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.197915</v>
+        <v>0.206119</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20774</v>
+        <v>0.25736</v>
       </c>
     </row>
     <row r="39">
@@ -4228,10 +4228,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.378711</v>
+        <v>0.396497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.364306</v>
+        <v>0.449448</v>
       </c>
     </row>
     <row r="40">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.01727</v>
+        <v>-0.020468</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.018194</v>
+        <v>-0.019834</v>
       </c>
     </row>
     <row r="41">
@@ -4260,10 +4260,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.048642</v>
+        <v>0.048937</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04458</v>
+        <v>0.057182</v>
       </c>
     </row>
     <row r="42">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.029445</v>
+        <v>0.028723</v>
       </c>
       <c r="D42" t="n">
-        <v>0.033729</v>
+        <v>0.04387</v>
       </c>
     </row>
     <row r="43">
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.013652</v>
+        <v>0.012093</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001124</v>
+        <v>0.003867</v>
       </c>
     </row>
     <row r="44">
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.003837</v>
+        <v>0.001758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003137</v>
+        <v>0.006336</v>
       </c>
     </row>
     <row r="45">
@@ -4324,10 +4324,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.08357299999999999</v>
+        <v>0.085719</v>
       </c>
       <c r="D45" t="n">
-        <v>0.090591</v>
+        <v>0.113632</v>
       </c>
     </row>
     <row r="46">
@@ -4340,10 +4340,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.130515</v>
+        <v>0.135149</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140813</v>
+        <v>0.175249</v>
       </c>
     </row>
     <row r="47">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.015121</v>
+        <v>0.01364</v>
       </c>
       <c r="D47" t="n">
-        <v>0.011002</v>
+        <v>0.015986</v>
       </c>
     </row>
     <row r="48">
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.025695</v>
+        <v>-0.02934</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.024983</v>
+        <v>-0.028163</v>
       </c>
     </row>
     <row r="49">
@@ -4388,10 +4388,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.336568</v>
+        <v>0.352121</v>
       </c>
       <c r="D49" t="n">
-        <v>0.340912</v>
+        <v>0.420746</v>
       </c>
     </row>
     <row r="50">
@@ -4404,10 +4404,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.199176</v>
+        <v>0.207447</v>
       </c>
       <c r="D50" t="n">
-        <v>0.19473</v>
+        <v>0.241398</v>
       </c>
     </row>
     <row r="51">
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.073004</v>
+        <v>0.07459</v>
       </c>
       <c r="D51" t="n">
-        <v>0.083427</v>
+        <v>0.104843</v>
       </c>
     </row>
     <row r="52">
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.027346</v>
+        <v>-0.031078</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.027668</v>
+        <v>-0.031457</v>
       </c>
     </row>
     <row r="53">
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.001657</v>
+        <v>-0.004027</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.001069</v>
+        <v>0.001177</v>
       </c>
     </row>
     <row r="54">
@@ -4468,10 +4468,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.370225</v>
+        <v>0.387561</v>
       </c>
       <c r="D54" t="n">
-        <v>0.373028</v>
+        <v>0.460148</v>
       </c>
     </row>
     <row r="55">
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.007977</v>
+        <v>-0.010683</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.010038</v>
+        <v>-0.009827000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4500,10 +4500,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.06375400000000001</v>
+        <v>0.06485</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05035</v>
+        <v>0.064261</v>
       </c>
     </row>
     <row r="57">
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.000659</v>
+        <v>-0.001589</v>
       </c>
       <c r="D57" t="n">
-        <v>0.000995</v>
+        <v>0.003709</v>
       </c>
     </row>
     <row r="58">
@@ -4532,10 +4532,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.021574</v>
+        <v>-0.025</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.021832</v>
+        <v>-0.024297</v>
       </c>
     </row>
     <row r="59">
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.028981</v>
+        <v>-0.032799</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.028567</v>
+        <v>-0.032561</v>
       </c>
     </row>
     <row r="60">
@@ -4564,10 +4564,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.020328</v>
+        <v>-0.023688</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.021889</v>
+        <v>-0.024368</v>
       </c>
     </row>
     <row r="61">
@@ -4580,10 +4580,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.010406</v>
+        <v>-0.01324</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.009788</v>
+        <v>-0.009521</v>
       </c>
     </row>
     <row r="62">
@@ -4596,10 +4596,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.06621100000000001</v>
+        <v>0.067437</v>
       </c>
       <c r="D62" t="n">
-        <v>0.065377</v>
+        <v>0.08269700000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4612,10 +4612,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.09963900000000001</v>
+        <v>0.102636</v>
       </c>
       <c r="D63" t="n">
-        <v>0.101426</v>
+        <v>0.126925</v>
       </c>
     </row>
     <row r="64">
@@ -4628,10 +4628,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.014795</v>
+        <v>-0.017862</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.015519</v>
+        <v>-0.016553</v>
       </c>
     </row>
     <row r="65">
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.019656</v>
+        <v>0.018414</v>
       </c>
       <c r="D65" t="n">
-        <v>0.020207</v>
+        <v>0.027279</v>
       </c>
     </row>
     <row r="66">
@@ -4660,10 +4660,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.019515</v>
+        <v>0.018266</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003344</v>
+        <v>0.006591</v>
       </c>
     </row>
     <row r="67">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.045294</v>
+        <v>0.045411</v>
       </c>
       <c r="D67" t="n">
-        <v>0.064114</v>
+        <v>0.081148</v>
       </c>
     </row>
     <row r="68">
@@ -4692,10 +4692,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.871345</v>
+        <v>0.915236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8883490000000001</v>
+        <v>1.092384</v>
       </c>
     </row>
     <row r="69">
@@ -4708,10 +4708,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.226782</v>
+        <v>0.236516</v>
       </c>
       <c r="D69" t="n">
-        <v>0.234108</v>
+        <v>0.28971</v>
       </c>
     </row>
     <row r="70">
@@ -4724,10 +4724,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.206107</v>
+        <v>0.214746</v>
       </c>
       <c r="D70" t="n">
-        <v>0.200918</v>
+        <v>0.248989</v>
       </c>
     </row>
     <row r="71">
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.003621</v>
+        <v>0.00153</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003081</v>
+        <v>0.006268</v>
       </c>
     </row>
     <row r="72">
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.330933</v>
+        <v>0.346187</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339886</v>
+        <v>0.419487</v>
       </c>
     </row>
     <row r="73">
@@ -4772,10 +4772,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.001171</v>
+        <v>-0.001049</v>
       </c>
       <c r="D73" t="n">
-        <v>0.000613</v>
+        <v>0.00324</v>
       </c>
     </row>
     <row r="74">
@@ -4788,10 +4788,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.09522700000000001</v>
+        <v>0.09798999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07231600000000001</v>
+        <v>0.09121</v>
       </c>
     </row>
     <row r="75">
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.021555</v>
+        <v>-0.02498</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.020974</v>
+        <v>-0.023245</v>
       </c>
     </row>
     <row r="76">
@@ -4820,10 +4820,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.334309</v>
+        <v>0.349741</v>
       </c>
       <c r="D76" t="n">
-        <v>0.30284</v>
+        <v>0.374036</v>
       </c>
     </row>
     <row r="77">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.006951</v>
+        <v>0.005037</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006707</v>
+        <v>0.010717</v>
       </c>
     </row>
     <row r="78">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.455537</v>
+        <v>0.477393</v>
       </c>
       <c r="D78" t="n">
-        <v>0.542791</v>
+        <v>0.668426</v>
       </c>
     </row>
     <row r="79">
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.019867</v>
+        <v>-0.023202</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.019116</v>
+        <v>-0.020965</v>
       </c>
     </row>
     <row r="80">
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.004654</v>
+        <v>-0.007184</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.005387</v>
+        <v>-0.004121</v>
       </c>
     </row>
     <row r="81">
@@ -4900,10 +4900,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.074144</v>
+        <v>0.07579</v>
       </c>
       <c r="D81" t="n">
-        <v>0.076885</v>
+        <v>0.096816</v>
       </c>
     </row>
     <row r="82">
@@ -4916,10 +4916,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.005155</v>
+        <v>0.003146</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004119</v>
+        <v>0.007542</v>
       </c>
     </row>
     <row r="83">
@@ -4932,10 +4932,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.019551</v>
+        <v>-0.02287</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.020881</v>
+        <v>-0.02313</v>
       </c>
     </row>
     <row r="84">
@@ -4948,10 +4948,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.027915</v>
+        <v>-0.031677</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.028047</v>
+        <v>-0.031922</v>
       </c>
     </row>
     <row r="85">
@@ -4964,10 +4964,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.119543</v>
+        <v>0.123595</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131716</v>
+        <v>0.164087</v>
       </c>
     </row>
     <row r="86">
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.126026</v>
+        <v>0.130422</v>
       </c>
       <c r="D86" t="n">
-        <v>0.127138</v>
+        <v>0.158471</v>
       </c>
     </row>
     <row r="87">
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.02833</v>
+        <v>-0.032114</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.027987</v>
+        <v>-0.031849</v>
       </c>
     </row>
     <row r="88">
@@ -5012,10 +5012,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.029623</v>
+        <v>-0.033476</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.028201</v>
+        <v>-0.032111</v>
       </c>
     </row>
     <row r="89">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.108586</v>
+        <v>0.112058</v>
       </c>
       <c r="D89" t="n">
-        <v>0.102185</v>
+        <v>0.127857</v>
       </c>
     </row>
     <row r="90">
@@ -5044,10 +5044,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.027178</v>
+        <v>-0.030901</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.026036</v>
+        <v>-0.029455</v>
       </c>
     </row>
     <row r="91">
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.021013</v>
+        <v>-0.024409</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01524</v>
+        <v>-0.01621</v>
       </c>
     </row>
     <row r="92">
@@ -5076,10 +5076,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.063207</v>
+        <v>0.064274</v>
       </c>
       <c r="D92" t="n">
-        <v>0.030212</v>
+        <v>0.039555</v>
       </c>
     </row>
     <row r="93">
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.06336600000000001</v>
+        <v>0.064441</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06851599999999999</v>
+        <v>0.086549</v>
       </c>
     </row>
     <row r="94">
@@ -5108,10 +5108,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.004541</v>
+        <v>-0.007065</v>
       </c>
       <c r="D94" t="n">
-        <v>0.000812</v>
+        <v>0.003484</v>
       </c>
     </row>
     <row r="95">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.011329</v>
+        <v>0.009646999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.022041</v>
+        <v>0.02953</v>
       </c>
     </row>
     <row r="96">
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.001469</v>
+        <v>-0.003829</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.002906</v>
+        <v>-0.001078</v>
       </c>
     </row>
     <row r="97">
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.027738</v>
+        <v>-0.03149</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02782</v>
+        <v>-0.031644</v>
       </c>
     </row>
     <row r="98">
@@ -5172,10 +5172,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.011935</v>
+        <v>-0.01485</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.015901</v>
+        <v>-0.01702</v>
       </c>
     </row>
     <row r="99">
@@ -5188,10 +5188,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.010353</v>
+        <v>0.008619</v>
       </c>
       <c r="D99" t="n">
-        <v>0.012817</v>
+        <v>0.018212</v>
       </c>
     </row>
     <row r="100">
@@ -5204,10 +5204,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.026619</v>
+        <v>-0.030312</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.026727</v>
+        <v>-0.030302</v>
       </c>
     </row>
     <row r="101">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.274584</v>
+        <v>0.286852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264034</v>
+        <v>0.326426</v>
       </c>
     </row>
     <row r="102">
@@ -5236,10 +5236,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.257208</v>
+        <v>0.268555</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248857</v>
+        <v>0.307805</v>
       </c>
     </row>
     <row r="103">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.015198</v>
+        <v>-0.018286</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.016686</v>
+        <v>-0.017984</v>
       </c>
     </row>
     <row r="104">
@@ -5268,10 +5268,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.027831</v>
+        <v>-0.031588</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.028045</v>
+        <v>-0.03192</v>
       </c>
     </row>
     <row r="105">
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.015421</v>
+        <v>-0.018521</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.01231</v>
+        <v>-0.012615</v>
       </c>
     </row>
     <row r="106">
@@ -5300,10 +5300,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.008488000000000001</v>
+        <v>0.006655</v>
       </c>
       <c r="D106" t="n">
-        <v>0.014493</v>
+        <v>0.020269</v>
       </c>
     </row>
     <row r="107">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.741377</v>
+        <v>0.778381</v>
       </c>
       <c r="D107" t="n">
-        <v>0.672269</v>
+        <v>0.82728</v>
       </c>
     </row>
     <row r="108">
@@ -5332,10 +5332,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.285066</v>
+        <v>0.29789</v>
       </c>
       <c r="D108" t="n">
-        <v>0.283733</v>
+        <v>0.350594</v>
       </c>
     </row>
     <row r="109">
@@ -5348,10 +5348,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.022093</v>
+        <v>-0.025547</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.022655</v>
+        <v>-0.025307</v>
       </c>
     </row>
     <row r="110">
@@ -5364,10 +5364,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.113104</v>
+        <v>0.116814</v>
       </c>
       <c r="D110" t="n">
-        <v>0.11883</v>
+        <v>0.148278</v>
       </c>
     </row>
     <row r="111">
@@ -5380,10 +5380,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-0.002283</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.001124</v>
+        <v>0.001109</v>
       </c>
     </row>
     <row r="112">
@@ -5396,10 +5396,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.039392</v>
+        <v>0.039197</v>
       </c>
       <c r="D112" t="n">
-        <v>0.030122</v>
+        <v>0.039444</v>
       </c>
     </row>
     <row r="113">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.034123</v>
+        <v>0.033649</v>
       </c>
       <c r="D113" t="n">
-        <v>0.036282</v>
+        <v>0.047002</v>
       </c>
     </row>
     <row r="114">
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.006341</v>
+        <v>0.004395</v>
       </c>
       <c r="D114" t="n">
-        <v>0.001544</v>
+        <v>0.004382</v>
       </c>
     </row>
     <row r="115">
@@ -5444,10 +5444,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.119967</v>
+        <v>0.124042</v>
       </c>
       <c r="D115" t="n">
-        <v>0.112582</v>
+        <v>0.140612</v>
       </c>
     </row>
     <row r="116">
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.112594</v>
+        <v>0.116278</v>
       </c>
       <c r="D116" t="n">
-        <v>0.109306</v>
+        <v>0.136594</v>
       </c>
     </row>
     <row r="117">
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.505337</v>
+        <v>0.622475</v>
       </c>
     </row>
     <row r="118">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.128655</v>
+        <v>1.186181</v>
       </c>
       <c r="D118" t="n">
-        <v>1.111651</v>
+        <v>1.366349</v>
       </c>
     </row>
     <row r="119">
@@ -5505,10 +5505,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.07803499999999999</v>
+        <v>0.079888</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08304499999999999</v>
+        <v>0.104374</v>
       </c>
     </row>
     <row r="120">
@@ -5521,10 +5521,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.07267</v>
+        <v>0.074238</v>
       </c>
       <c r="D120" t="n">
-        <v>0.08927499999999999</v>
+        <v>0.112017</v>
       </c>
     </row>
     <row r="121">
@@ -5537,10 +5537,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.026231</v>
+        <v>-0.029904</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.026793</v>
+        <v>-0.030383</v>
       </c>
     </row>
     <row r="122">
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.246244</v>
+        <v>0.25701</v>
       </c>
       <c r="D122" t="n">
-        <v>0.307116</v>
+        <v>0.379282</v>
       </c>
     </row>
     <row r="123">
@@ -5569,10 +5569,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-0.020544</v>
+        <v>-0.023915</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.020613</v>
+        <v>-0.022802</v>
       </c>
     </row>
     <row r="124">
@@ -5585,10 +5585,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.026574</v>
+        <v>0.025699</v>
       </c>
       <c r="D124" t="n">
-        <v>0.029245</v>
+        <v>0.038368</v>
       </c>
     </row>
     <row r="125">
@@ -5601,10 +5601,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.030724</v>
+        <v>-0.034635</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.030774</v>
+        <v>-0.035268</v>
       </c>
     </row>
     <row r="126">
@@ -5617,10 +5617,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.48464</v>
+        <v>0.508039</v>
       </c>
       <c r="D126" t="n">
-        <v>0.477569</v>
+        <v>0.588407</v>
       </c>
     </row>
     <row r="127">
@@ -5633,10 +5633,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.159214</v>
+        <v>0.165368</v>
       </c>
       <c r="D127" t="n">
-        <v>0.15363</v>
+        <v>0.190973</v>
       </c>
     </row>
     <row r="128">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.213297</v>
+        <v>0.222317</v>
       </c>
       <c r="D128" t="n">
-        <v>0.209575</v>
+        <v>0.25961</v>
       </c>
     </row>
     <row r="129">
@@ -5665,10 +5665,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.015908</v>
+        <v>0.014468</v>
       </c>
       <c r="D129" t="n">
-        <v>0.019055</v>
+        <v>0.025866</v>
       </c>
     </row>
     <row r="130">
@@ -5681,10 +5681,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.161725</v>
+        <v>0.168012</v>
       </c>
       <c r="D130" t="n">
-        <v>0.158552</v>
+        <v>0.197013</v>
       </c>
     </row>
     <row r="131">
@@ -5697,10 +5697,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.013858</v>
+        <v>0.01231</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006564</v>
+        <v>0.010541</v>
       </c>
     </row>
     <row r="132">
@@ -5713,10 +5713,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0.020896</v>
+        <v>-0.024286</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.02646</v>
+        <v>-0.029975</v>
       </c>
     </row>
     <row r="133">
@@ -5729,10 +5729,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.361192</v>
+        <v>0.378049</v>
       </c>
       <c r="D133" t="n">
-        <v>0.333362</v>
+        <v>0.411482</v>
       </c>
     </row>
     <row r="134">
@@ -5745,10 +5745,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.742636</v>
+        <v>0.779706</v>
       </c>
       <c r="D134" t="n">
-        <v>0.635593</v>
+        <v>0.782284</v>
       </c>
     </row>
     <row r="135">
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.026785</v>
+        <v>-0.030487</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.025974</v>
+        <v>-0.029379</v>
       </c>
     </row>
     <row r="136">
@@ -5777,10 +5777,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-0.015513</v>
+        <v>-0.018618</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.022245</v>
+        <v>-0.024804</v>
       </c>
     </row>
     <row r="137">
@@ -5793,10 +5793,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.021746</v>
+        <v>-0.025181</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.022299</v>
+        <v>-0.024871</v>
       </c>
     </row>
     <row r="138">
@@ -5809,10 +5809,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.043339</v>
+        <v>0.043353</v>
       </c>
       <c r="D138" t="n">
-        <v>0.050555</v>
+        <v>0.064512</v>
       </c>
     </row>
     <row r="139">
@@ -5825,10 +5825,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.015824</v>
+        <v>-0.018945</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.016186</v>
+        <v>-0.017371</v>
       </c>
     </row>
     <row r="140">
@@ -5841,10 +5841,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.028054</v>
+        <v>-0.031824</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.025727</v>
+        <v>-0.029077</v>
       </c>
     </row>
     <row r="141">
@@ -5857,10 +5857,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.162769</v>
+        <v>0.169112</v>
       </c>
       <c r="D141" t="n">
-        <v>0.15896</v>
+        <v>0.197513</v>
       </c>
     </row>
     <row r="142">
@@ -5873,10 +5873,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.000123</v>
+        <v>-0.002153</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.005747</v>
+        <v>-0.004564</v>
       </c>
     </row>
     <row r="143">
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.078571</v>
+        <v>0.080452</v>
       </c>
       <c r="D143" t="n">
-        <v>0.047943</v>
+        <v>0.061308</v>
       </c>
     </row>
     <row r="144">
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.06734999999999999</v>
+        <v>0.085118</v>
       </c>
     </row>
     <row r="145">
@@ -5918,10 +5918,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-0.023016</v>
+        <v>-0.026518</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.024646</v>
+        <v>-0.027749</v>
       </c>
     </row>
     <row r="146">
@@ -5934,10 +5934,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.014884</v>
+        <v>-0.017956</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.006558</v>
+        <v>-0.005558</v>
       </c>
     </row>
     <row r="147">
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.592614</v>
+        <v>0.621735</v>
       </c>
       <c r="D147" t="n">
-        <v>0.616585</v>
+        <v>0.7589630000000001</v>
       </c>
     </row>
     <row r="148">
@@ -5966,10 +5966,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.253162</v>
+        <v>0.264294</v>
       </c>
       <c r="D148" t="n">
-        <v>0.210607</v>
+        <v>0.260878</v>
       </c>
     </row>
     <row r="149">
@@ -5982,10 +5982,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.355349</v>
+        <v>0.371896</v>
       </c>
       <c r="D149" t="n">
-        <v>0.350291</v>
+        <v>0.432253</v>
       </c>
     </row>
     <row r="150">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.102711</v>
+        <v>0.105871</v>
       </c>
       <c r="D150" t="n">
-        <v>0.07063999999999999</v>
+        <v>0.089155</v>
       </c>
     </row>
     <row r="151">
@@ -6014,10 +6014,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-0.004966</v>
+        <v>-0.007512</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.013651</v>
+        <v>-0.014261</v>
       </c>
     </row>
     <row r="152">
@@ -6030,10 +6030,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.008737</v>
+        <v>0.006917</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009549</v>
+        <v>0.014204</v>
       </c>
     </row>
     <row r="153">
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.009997000000000001</v>
+        <v>-0.01281</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.010048</v>
+        <v>-0.00984</v>
       </c>
     </row>
     <row r="154">
@@ -6062,10 +6062,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.016659</v>
+        <v>-0.019824</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.017459</v>
+        <v>-0.018932</v>
       </c>
     </row>
     <row r="155">
@@ -6078,10 +6078,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-0.021858</v>
+        <v>-0.025299</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.017065</v>
+        <v>-0.018449</v>
       </c>
     </row>
     <row r="156">
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.018656</v>
+        <v>-0.021927</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.018957</v>
+        <v>-0.02077</v>
       </c>
     </row>
     <row r="157">
@@ -6110,10 +6110,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-0.017879</v>
+        <v>-0.021109</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.016426</v>
+        <v>-0.017665</v>
       </c>
     </row>
     <row r="158">
@@ -6126,10 +6126,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.052358</v>
+        <v>0.05285</v>
       </c>
       <c r="D158" t="n">
-        <v>0.056536</v>
+        <v>0.07185</v>
       </c>
     </row>
     <row r="159">
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.050212</v>
+        <v>0.05059</v>
       </c>
       <c r="D159" t="n">
-        <v>0.049146</v>
+        <v>0.06278400000000001</v>
       </c>
     </row>
     <row r="160">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.113593</v>
+        <v>0.11733</v>
       </c>
       <c r="D160" t="n">
-        <v>0.113128</v>
+        <v>0.141282</v>
       </c>
     </row>
     <row r="161">
@@ -6174,10 +6174,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.005235</v>
+        <v>0.00323</v>
       </c>
       <c r="D161" t="n">
-        <v>0.003898</v>
+        <v>0.00727</v>
       </c>
     </row>
     <row r="162">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.102854</v>
+        <v>0.106021</v>
       </c>
       <c r="D162" t="n">
-        <v>0.09532499999999999</v>
+        <v>0.11944</v>
       </c>
     </row>
     <row r="163">
@@ -6206,10 +6206,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.076166</v>
+        <v>0.077919</v>
       </c>
       <c r="D163" t="n">
-        <v>0.068408</v>
+        <v>0.08641600000000001</v>
       </c>
     </row>
     <row r="164">
@@ -6222,10 +6222,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.077347</v>
+        <v>0.079163</v>
       </c>
       <c r="D164" t="n">
-        <v>0.069504</v>
+        <v>0.08776100000000001</v>
       </c>
     </row>
     <row r="165">
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.249588</v>
+        <v>0.260531</v>
       </c>
       <c r="D165" t="n">
-        <v>0.247287</v>
+        <v>0.305879</v>
       </c>
     </row>
     <row r="166">
@@ -6254,10 +6254,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.160541</v>
+        <v>0.166766</v>
       </c>
       <c r="D166" t="n">
-        <v>0.15413</v>
+        <v>0.191586</v>
       </c>
     </row>
     <row r="167">
@@ -6270,10 +6270,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.048814</v>
+        <v>0.049118</v>
       </c>
       <c r="D167" t="n">
-        <v>0.047431</v>
+        <v>0.06068</v>
       </c>
     </row>
     <row r="168">
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.056089</v>
+        <v>0.056779</v>
       </c>
       <c r="D168" t="n">
-        <v>0.05446</v>
+        <v>0.069303</v>
       </c>
     </row>
     <row r="169">
@@ -6302,10 +6302,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.22585</v>
+        <v>0.235535</v>
       </c>
       <c r="D169" t="n">
-        <v>0.223191</v>
+        <v>0.276316</v>
       </c>
     </row>
     <row r="170">
@@ -6318,10 +6318,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-0.023113</v>
+        <v>-0.026621</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.023597</v>
+        <v>-0.026462</v>
       </c>
     </row>
     <row r="171">
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.297319</v>
+        <v>0.310791</v>
       </c>
       <c r="D171" t="n">
-        <v>0.292392</v>
+        <v>0.361218</v>
       </c>
     </row>
     <row r="172">
@@ -6350,10 +6350,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.042898</v>
+        <v>0.042889</v>
       </c>
       <c r="D172" t="n">
-        <v>0.038602</v>
+        <v>0.049848</v>
       </c>
     </row>
     <row r="173">
@@ -6366,10 +6366,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.0265</v>
+        <v>0.025622</v>
       </c>
       <c r="D173" t="n">
-        <v>0.023407</v>
+        <v>0.031205</v>
       </c>
     </row>
     <row r="174">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-0.017915</v>
+        <v>-0.021147</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.017312</v>
+        <v>-0.018752</v>
       </c>
     </row>
     <row r="175">
@@ -6398,10 +6398,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-0.021609</v>
+        <v>-0.025036</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.021434</v>
+        <v>-0.02381</v>
       </c>
     </row>
     <row r="176">
@@ -6414,10 +6414,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-0.020369</v>
+        <v>-0.023732</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.020051</v>
+        <v>-0.022113</v>
       </c>
     </row>
     <row r="177">
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.088075</v>
+        <v>0.09046</v>
       </c>
       <c r="D177" t="n">
-        <v>0.081815</v>
+        <v>0.102865</v>
       </c>
     </row>
     <row r="178">
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.049597</v>
+        <v>0.049943</v>
       </c>
       <c r="D178" t="n">
-        <v>0.048728</v>
+        <v>0.062272</v>
       </c>
     </row>
     <row r="179">
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.032957</v>
+        <v>0.032421</v>
       </c>
       <c r="D179" t="n">
-        <v>0.032377</v>
+        <v>0.042211</v>
       </c>
     </row>
     <row r="180">
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.047521</v>
+        <v>0.047757</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04644</v>
+        <v>0.059464</v>
       </c>
     </row>
     <row r="181">
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-0.021633</v>
+        <v>-0.025062</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.021322</v>
+        <v>-0.023672</v>
       </c>
     </row>
     <row r="182">
@@ -6510,10 +6510,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.023822</v>
+        <v>0.022802</v>
       </c>
       <c r="D182" t="n">
-        <v>0.020843</v>
+        <v>0.028059</v>
       </c>
     </row>
     <row r="183">
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>-0.025293</v>
+        <v>-0.028916</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.026015</v>
+        <v>-0.029429</v>
       </c>
     </row>
     <row r="184">
@@ -6542,10 +6542,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-0.008451</v>
+        <v>-0.011182</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.009364000000000001</v>
+        <v>-0.009001</v>
       </c>
     </row>
     <row r="185">
@@ -6558,10 +6558,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.060038</v>
+        <v>0.060937</v>
       </c>
       <c r="D185" t="n">
-        <v>0.061602</v>
+        <v>0.078066</v>
       </c>
     </row>
     <row r="186">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.012657</v>
+        <v>0.011045</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007375</v>
+        <v>0.011535</v>
       </c>
     </row>
     <row r="187">
@@ -6590,10 +6590,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.012922</v>
+        <v>0.011324</v>
       </c>
       <c r="D187" t="n">
-        <v>0.007578</v>
+        <v>0.011786</v>
       </c>
     </row>
     <row r="188">
@@ -6606,10 +6606,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.029581</v>
+        <v>0.028866</v>
       </c>
       <c r="D188" t="n">
-        <v>0.026333</v>
+        <v>0.034796</v>
       </c>
     </row>
     <row r="189">
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.353146</v>
+        <v>0.369577</v>
       </c>
       <c r="D189" t="n">
-        <v>0.349076</v>
+        <v>0.430762</v>
       </c>
     </row>
     <row r="190">
@@ -6638,10 +6638,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.254334</v>
+        <v>0.265529</v>
       </c>
       <c r="D190" t="n">
-        <v>0.246935</v>
+        <v>0.305447</v>
       </c>
     </row>
     <row r="191">
@@ -6654,10 +6654,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.143421</v>
+        <v>0.148738</v>
       </c>
       <c r="D191" t="n">
-        <v>0.143608</v>
+        <v>0.178677</v>
       </c>
     </row>
     <row r="192">
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-0.011988</v>
+        <v>-0.014906</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.012123</v>
+        <v>-0.012386</v>
       </c>
     </row>
     <row r="193">
@@ -6686,10 +6686,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.287841</v>
+        <v>0.300811</v>
       </c>
       <c r="D193" t="n">
-        <v>0.281294</v>
+        <v>0.347601</v>
       </c>
     </row>
     <row r="194">
@@ -6702,10 +6702,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-0.017898</v>
+        <v>-0.021129</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.016935</v>
+        <v>-0.01829</v>
       </c>
     </row>
     <row r="195">
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.117528</v>
+        <v>0.121473</v>
       </c>
       <c r="D195" t="n">
-        <v>0.117479</v>
+        <v>0.14662</v>
       </c>
     </row>
     <row r="196">
@@ -6734,10 +6734,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-0.015817</v>
+        <v>-0.018938</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.016004</v>
+        <v>-0.017147</v>
       </c>
     </row>
     <row r="197">
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>-0.015817</v>
+        <v>-0.018938</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.016004</v>
+        <v>-0.017147</v>
       </c>
     </row>
     <row r="198">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-0.018341</v>
+        <v>-0.021596</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.017931</v>
+        <v>-0.019511</v>
       </c>
     </row>
     <row r="199">
@@ -6782,10 +6782,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-0.018348</v>
+        <v>-0.021603</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.017935</v>
+        <v>-0.019516</v>
       </c>
     </row>
     <row r="200">
@@ -6798,10 +6798,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-0.018341</v>
+        <v>-0.021596</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.017931</v>
+        <v>-0.019511</v>
       </c>
     </row>
     <row r="201">
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.080322</v>
+        <v>0.08229599999999999</v>
       </c>
       <c r="D201" t="n">
-        <v>0.073959</v>
+        <v>0.093226</v>
       </c>
     </row>
     <row r="202">
@@ -6830,10 +6830,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.068607</v>
+        <v>0.06995999999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>0.065285</v>
+        <v>0.08258500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6898,10 +6898,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002501</v>
+        <v>0.000351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004026</v>
+        <v>0.007427</v>
       </c>
     </row>
     <row r="4">
@@ -6914,10 +6914,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.017776</v>
+        <v>0.016435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.015876</v>
+        <v>0.021966</v>
       </c>
     </row>
     <row r="5">
@@ -6930,10 +6930,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003777</v>
+        <v>0.001694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002528</v>
+        <v>0.005589</v>
       </c>
     </row>
     <row r="6">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.061827</v>
+        <v>0.062821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.042359</v>
+        <v>0.054457</v>
       </c>
     </row>
     <row r="7">
@@ -6962,10 +6962,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.009409000000000001</v>
+        <v>0.007625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007012</v>
+        <v>0.011091</v>
       </c>
     </row>
     <row r="8">
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.423243</v>
+        <v>0.443389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.414628</v>
+        <v>0.511186</v>
       </c>
     </row>
     <row r="9">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.379137</v>
+        <v>0.396945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.372924</v>
+        <v>0.460021</v>
       </c>
     </row>
     <row r="10">
@@ -7010,10 +7010,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.043841</v>
+        <v>0.043882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04361</v>
+        <v>0.055992</v>
       </c>
     </row>
     <row r="11">
@@ -7026,10 +7026,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.274245</v>
+        <v>0.286495</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317612</v>
+        <v>0.392159</v>
       </c>
     </row>
     <row r="12">
@@ -7058,10 +7058,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.033718</v>
+        <v>0.033222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.037954</v>
+        <v>0.049053</v>
       </c>
     </row>
     <row r="14">
@@ -7074,10 +7074,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.251585</v>
+        <v>0.262634</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256509</v>
+        <v>0.317194</v>
       </c>
     </row>
     <row r="15">
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01085</v>
+        <v>0.009143</v>
       </c>
       <c r="D17" t="n">
-        <v>0.014547</v>
+        <v>0.020335</v>
       </c>
     </row>
     <row r="18">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.046743</v>
+        <v>0.046937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.036528</v>
+        <v>0.047304</v>
       </c>
     </row>
     <row r="19">
@@ -7154,10 +7154,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.021988</v>
+        <v>0.020871</v>
       </c>
       <c r="D19" t="n">
-        <v>0.021552</v>
+        <v>0.028929</v>
       </c>
     </row>
     <row r="20">
@@ -7170,10 +7170,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.031208</v>
+        <v>0.030579</v>
       </c>
       <c r="D20" t="n">
-        <v>0.037064</v>
+        <v>0.047961</v>
       </c>
     </row>
     <row r="21">
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.334159</v>
+        <v>0.349584</v>
       </c>
     </row>
     <row r="26">
@@ -7295,10 +7295,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09460300000000001</v>
+        <v>0.097334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09600499999999999</v>
+        <v>0.120275</v>
       </c>
     </row>
     <row r="29">
@@ -7311,10 +7311,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.105403</v>
+        <v>0.108706</v>
       </c>
       <c r="D29" t="n">
-        <v>0.093918</v>
+        <v>0.117714</v>
       </c>
     </row>
     <row r="30">
@@ -7327,10 +7327,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02565</v>
+        <v>0.024727</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02202</v>
+        <v>0.029504</v>
       </c>
     </row>
     <row r="31">
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0037</v>
+        <v>0.007027</v>
       </c>
     </row>
     <row r="33">
@@ -7375,10 +7375,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.049881</v>
+        <v>0.050242</v>
       </c>
       <c r="D33" t="n">
-        <v>0.046511</v>
+        <v>0.059552</v>
       </c>
     </row>
     <row r="34">
@@ -7407,10 +7407,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.069128</v>
+        <v>0.070508</v>
       </c>
       <c r="D35" t="n">
-        <v>0.066371</v>
+        <v>0.08391700000000001</v>
       </c>
     </row>
     <row r="36">
@@ -7423,10 +7423,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.026782</v>
+        <v>0.025919</v>
       </c>
       <c r="D36" t="n">
-        <v>0.040315</v>
+        <v>0.05195</v>
       </c>
     </row>
     <row r="37">
@@ -7439,10 +7439,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.061187</v>
+        <v>0.062147</v>
       </c>
       <c r="D37" t="n">
-        <v>0.056079</v>
+        <v>0.07129000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -7455,10 +7455,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.197915</v>
+        <v>0.206119</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20774</v>
+        <v>0.25736</v>
       </c>
     </row>
     <row r="39">
@@ -7471,10 +7471,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.378711</v>
+        <v>0.396497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.364306</v>
+        <v>0.449448</v>
       </c>
     </row>
     <row r="40">
@@ -7503,10 +7503,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.048642</v>
+        <v>0.048937</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04458</v>
+        <v>0.057182</v>
       </c>
     </row>
     <row r="42">
@@ -7519,10 +7519,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.029445</v>
+        <v>0.028723</v>
       </c>
       <c r="D42" t="n">
-        <v>0.033729</v>
+        <v>0.04387</v>
       </c>
     </row>
     <row r="43">
@@ -7535,10 +7535,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.013652</v>
+        <v>0.012093</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001124</v>
+        <v>0.003867</v>
       </c>
     </row>
     <row r="44">
@@ -7551,10 +7551,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.003837</v>
+        <v>0.001758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003137</v>
+        <v>0.006336</v>
       </c>
     </row>
     <row r="45">
@@ -7567,10 +7567,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.08357299999999999</v>
+        <v>0.085719</v>
       </c>
       <c r="D45" t="n">
-        <v>0.090591</v>
+        <v>0.113632</v>
       </c>
     </row>
     <row r="46">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.130515</v>
+        <v>0.135149</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140813</v>
+        <v>0.175249</v>
       </c>
     </row>
     <row r="47">
@@ -7599,10 +7599,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.015121</v>
+        <v>0.01364</v>
       </c>
       <c r="D47" t="n">
-        <v>0.011002</v>
+        <v>0.015986</v>
       </c>
     </row>
     <row r="48">
@@ -7631,10 +7631,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.336568</v>
+        <v>0.352121</v>
       </c>
       <c r="D49" t="n">
-        <v>0.340912</v>
+        <v>0.420746</v>
       </c>
     </row>
     <row r="50">
@@ -7647,10 +7647,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.199176</v>
+        <v>0.207447</v>
       </c>
       <c r="D50" t="n">
-        <v>0.19473</v>
+        <v>0.241398</v>
       </c>
     </row>
     <row r="51">
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.073004</v>
+        <v>0.07459</v>
       </c>
       <c r="D51" t="n">
-        <v>0.083427</v>
+        <v>0.104843</v>
       </c>
     </row>
     <row r="52">
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.001177</v>
       </c>
     </row>
     <row r="54">
@@ -7711,10 +7711,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.370225</v>
+        <v>0.387561</v>
       </c>
       <c r="D54" t="n">
-        <v>0.373028</v>
+        <v>0.460148</v>
       </c>
     </row>
     <row r="55">
@@ -7743,10 +7743,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.06375400000000001</v>
+        <v>0.06485</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05035</v>
+        <v>0.064261</v>
       </c>
     </row>
     <row r="57">
@@ -7759,10 +7759,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.000659</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.000995</v>
+        <v>0.003709</v>
       </c>
     </row>
     <row r="58">
@@ -7839,10 +7839,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.06621100000000001</v>
+        <v>0.067437</v>
       </c>
       <c r="D62" t="n">
-        <v>0.065377</v>
+        <v>0.08269700000000001</v>
       </c>
     </row>
     <row r="63">
@@ -7855,10 +7855,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.09963900000000001</v>
+        <v>0.102636</v>
       </c>
       <c r="D63" t="n">
-        <v>0.101426</v>
+        <v>0.126925</v>
       </c>
     </row>
     <row r="64">
@@ -7887,10 +7887,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.019656</v>
+        <v>0.018414</v>
       </c>
       <c r="D65" t="n">
-        <v>0.020207</v>
+        <v>0.027279</v>
       </c>
     </row>
     <row r="66">
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.019515</v>
+        <v>0.018266</v>
       </c>
       <c r="D66" t="n">
-        <v>0.003344</v>
+        <v>0.006591</v>
       </c>
     </row>
     <row r="67">
@@ -7919,10 +7919,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.045294</v>
+        <v>0.045411</v>
       </c>
       <c r="D67" t="n">
-        <v>0.064114</v>
+        <v>0.081148</v>
       </c>
     </row>
     <row r="68">
@@ -7935,10 +7935,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.871345</v>
+        <v>0.915236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8883490000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -7951,10 +7951,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.226782</v>
+        <v>0.236516</v>
       </c>
       <c r="D69" t="n">
-        <v>0.234108</v>
+        <v>0.28971</v>
       </c>
     </row>
     <row r="70">
@@ -7967,10 +7967,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.206107</v>
+        <v>0.214746</v>
       </c>
       <c r="D70" t="n">
-        <v>0.200918</v>
+        <v>0.248989</v>
       </c>
     </row>
     <row r="71">
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.003621</v>
+        <v>0.00153</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003081</v>
+        <v>0.006268</v>
       </c>
     </row>
     <row r="72">
@@ -7999,10 +7999,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.330933</v>
+        <v>0.346187</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339886</v>
+        <v>0.419487</v>
       </c>
     </row>
     <row r="73">
@@ -8015,10 +8015,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.001171</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.000613</v>
+        <v>0.00324</v>
       </c>
     </row>
     <row r="74">
@@ -8031,10 +8031,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.09522700000000001</v>
+        <v>0.09798999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07231600000000001</v>
+        <v>0.09121</v>
       </c>
     </row>
     <row r="75">
@@ -8063,10 +8063,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.334309</v>
+        <v>0.349741</v>
       </c>
       <c r="D76" t="n">
-        <v>0.30284</v>
+        <v>0.374036</v>
       </c>
     </row>
     <row r="77">
@@ -8079,10 +8079,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.006951</v>
+        <v>0.005037</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006707</v>
+        <v>0.010717</v>
       </c>
     </row>
     <row r="78">
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.455537</v>
+        <v>0.477393</v>
       </c>
       <c r="D78" t="n">
-        <v>0.542791</v>
+        <v>0.668426</v>
       </c>
     </row>
     <row r="79">
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.074144</v>
+        <v>0.07579</v>
       </c>
       <c r="D81" t="n">
-        <v>0.076885</v>
+        <v>0.096816</v>
       </c>
     </row>
     <row r="82">
@@ -8159,10 +8159,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.005155</v>
+        <v>0.003146</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004119</v>
+        <v>0.007542</v>
       </c>
     </row>
     <row r="83">
@@ -8207,10 +8207,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.119543</v>
+        <v>0.123595</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131716</v>
+        <v>0.164087</v>
       </c>
     </row>
     <row r="86">
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.126026</v>
+        <v>0.130422</v>
       </c>
       <c r="D86" t="n">
-        <v>0.127138</v>
+        <v>0.158471</v>
       </c>
     </row>
     <row r="87">
@@ -8271,10 +8271,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.108586</v>
+        <v>0.112058</v>
       </c>
       <c r="D89" t="n">
-        <v>0.102185</v>
+        <v>0.127857</v>
       </c>
     </row>
     <row r="90">
@@ -8319,10 +8319,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.063207</v>
+        <v>0.064274</v>
       </c>
       <c r="D92" t="n">
-        <v>0.030212</v>
+        <v>0.039555</v>
       </c>
     </row>
     <row r="93">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.06336600000000001</v>
+        <v>0.064441</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06851599999999999</v>
+        <v>0.086549</v>
       </c>
     </row>
     <row r="94">
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.000812</v>
+        <v>0.003484</v>
       </c>
     </row>
     <row r="95">
@@ -8367,10 +8367,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.011329</v>
+        <v>0.009646999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.022041</v>
+        <v>0.02953</v>
       </c>
     </row>
     <row r="96">
@@ -8431,10 +8431,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.010353</v>
+        <v>0.008619</v>
       </c>
       <c r="D99" t="n">
-        <v>0.012817</v>
+        <v>0.018212</v>
       </c>
     </row>
     <row r="100">
@@ -8463,10 +8463,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.274584</v>
+        <v>0.286852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264034</v>
+        <v>0.326426</v>
       </c>
     </row>
     <row r="102">
@@ -8479,10 +8479,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.257208</v>
+        <v>0.268555</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248857</v>
+        <v>0.307805</v>
       </c>
     </row>
     <row r="103">
@@ -8543,10 +8543,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.008488000000000001</v>
+        <v>0.006655</v>
       </c>
       <c r="D106" t="n">
-        <v>0.014493</v>
+        <v>0.020269</v>
       </c>
     </row>
     <row r="107">
@@ -8559,10 +8559,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.741377</v>
+        <v>0.778381</v>
       </c>
       <c r="D107" t="n">
-        <v>0.672269</v>
+        <v>0.82728</v>
       </c>
     </row>
     <row r="108">
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.285066</v>
+        <v>0.29789</v>
       </c>
       <c r="D108" t="n">
-        <v>0.283733</v>
+        <v>0.350594</v>
       </c>
     </row>
     <row r="109">
@@ -8607,10 +8607,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.113104</v>
+        <v>0.116814</v>
       </c>
       <c r="D110" t="n">
-        <v>0.11883</v>
+        <v>0.148278</v>
       </c>
     </row>
     <row r="111">
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>0.001109</v>
       </c>
     </row>
     <row r="112">
@@ -8639,10 +8639,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.039392</v>
+        <v>0.039197</v>
       </c>
       <c r="D112" t="n">
-        <v>0.030122</v>
+        <v>0.039444</v>
       </c>
     </row>
     <row r="113">
@@ -8655,10 +8655,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.034123</v>
+        <v>0.033649</v>
       </c>
       <c r="D113" t="n">
-        <v>0.036282</v>
+        <v>0.047002</v>
       </c>
     </row>
     <row r="114">
@@ -8671,10 +8671,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.006341</v>
+        <v>0.004395</v>
       </c>
       <c r="D114" t="n">
-        <v>0.001544</v>
+        <v>0.004382</v>
       </c>
     </row>
     <row r="115">
@@ -8687,10 +8687,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.119967</v>
+        <v>0.124042</v>
       </c>
       <c r="D115" t="n">
-        <v>0.112582</v>
+        <v>0.140612</v>
       </c>
     </row>
     <row r="116">
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.112594</v>
+        <v>0.116278</v>
       </c>
       <c r="D116" t="n">
-        <v>0.109306</v>
+        <v>0.136594</v>
       </c>
     </row>
     <row r="117">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.505337</v>
+        <v>0.622475</v>
       </c>
     </row>
     <row r="118">
@@ -8748,10 +8748,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.07803499999999999</v>
+        <v>0.079888</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08304499999999999</v>
+        <v>0.104374</v>
       </c>
     </row>
     <row r="120">
@@ -8764,10 +8764,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.07267</v>
+        <v>0.074238</v>
       </c>
       <c r="D120" t="n">
-        <v>0.08927499999999999</v>
+        <v>0.112017</v>
       </c>
     </row>
     <row r="121">
@@ -8796,10 +8796,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.246244</v>
+        <v>0.25701</v>
       </c>
       <c r="D122" t="n">
-        <v>0.307116</v>
+        <v>0.379282</v>
       </c>
     </row>
     <row r="123">
@@ -8828,10 +8828,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.026574</v>
+        <v>0.025699</v>
       </c>
       <c r="D124" t="n">
-        <v>0.029245</v>
+        <v>0.038368</v>
       </c>
     </row>
     <row r="125">
@@ -8860,10 +8860,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.48464</v>
+        <v>0.508039</v>
       </c>
       <c r="D126" t="n">
-        <v>0.477569</v>
+        <v>0.588407</v>
       </c>
     </row>
     <row r="127">
@@ -8876,10 +8876,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.159214</v>
+        <v>0.165368</v>
       </c>
       <c r="D127" t="n">
-        <v>0.15363</v>
+        <v>0.190973</v>
       </c>
     </row>
     <row r="128">
@@ -8892,10 +8892,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.213297</v>
+        <v>0.222317</v>
       </c>
       <c r="D128" t="n">
-        <v>0.209575</v>
+        <v>0.25961</v>
       </c>
     </row>
     <row r="129">
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.015908</v>
+        <v>0.014468</v>
       </c>
       <c r="D129" t="n">
-        <v>0.019055</v>
+        <v>0.025866</v>
       </c>
     </row>
     <row r="130">
@@ -8924,10 +8924,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.161725</v>
+        <v>0.168012</v>
       </c>
       <c r="D130" t="n">
-        <v>0.158552</v>
+        <v>0.197013</v>
       </c>
     </row>
     <row r="131">
@@ -8940,10 +8940,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.013858</v>
+        <v>0.01231</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006564</v>
+        <v>0.010541</v>
       </c>
     </row>
     <row r="132">
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.361192</v>
+        <v>0.378049</v>
       </c>
       <c r="D133" t="n">
-        <v>0.333362</v>
+        <v>0.411482</v>
       </c>
     </row>
     <row r="134">
@@ -8988,10 +8988,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.742636</v>
+        <v>0.779706</v>
       </c>
       <c r="D134" t="n">
-        <v>0.635593</v>
+        <v>0.782284</v>
       </c>
     </row>
     <row r="135">
@@ -9052,10 +9052,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.043339</v>
+        <v>0.043353</v>
       </c>
       <c r="D138" t="n">
-        <v>0.050555</v>
+        <v>0.064512</v>
       </c>
     </row>
     <row r="139">
@@ -9100,10 +9100,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.162769</v>
+        <v>0.169112</v>
       </c>
       <c r="D141" t="n">
-        <v>0.15896</v>
+        <v>0.197513</v>
       </c>
     </row>
     <row r="142">
@@ -9116,7 +9116,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.000123</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.078571</v>
+        <v>0.080452</v>
       </c>
       <c r="D143" t="n">
-        <v>0.047943</v>
+        <v>0.061308</v>
       </c>
     </row>
     <row r="144">
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.06734999999999999</v>
+        <v>0.085118</v>
       </c>
     </row>
     <row r="145">
@@ -9193,10 +9193,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.592614</v>
+        <v>0.621735</v>
       </c>
       <c r="D147" t="n">
-        <v>0.616585</v>
+        <v>0.7589630000000001</v>
       </c>
     </row>
     <row r="148">
@@ -9209,10 +9209,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.253162</v>
+        <v>0.264294</v>
       </c>
       <c r="D148" t="n">
-        <v>0.210607</v>
+        <v>0.260878</v>
       </c>
     </row>
     <row r="149">
@@ -9225,10 +9225,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.355349</v>
+        <v>0.371896</v>
       </c>
       <c r="D149" t="n">
-        <v>0.350291</v>
+        <v>0.432253</v>
       </c>
     </row>
     <row r="150">
@@ -9241,10 +9241,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.102711</v>
+        <v>0.105871</v>
       </c>
       <c r="D150" t="n">
-        <v>0.07063999999999999</v>
+        <v>0.089155</v>
       </c>
     </row>
     <row r="151">
@@ -9273,10 +9273,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.008737</v>
+        <v>0.006917</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009549</v>
+        <v>0.014204</v>
       </c>
     </row>
     <row r="153">
@@ -9369,10 +9369,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.052358</v>
+        <v>0.05285</v>
       </c>
       <c r="D158" t="n">
-        <v>0.056536</v>
+        <v>0.07185</v>
       </c>
     </row>
     <row r="159">
@@ -9385,10 +9385,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.050212</v>
+        <v>0.05059</v>
       </c>
       <c r="D159" t="n">
-        <v>0.049146</v>
+        <v>0.06278400000000001</v>
       </c>
     </row>
     <row r="160">
@@ -9401,10 +9401,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.113593</v>
+        <v>0.11733</v>
       </c>
       <c r="D160" t="n">
-        <v>0.113128</v>
+        <v>0.141282</v>
       </c>
     </row>
     <row r="161">
@@ -9417,10 +9417,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.005235</v>
+        <v>0.00323</v>
       </c>
       <c r="D161" t="n">
-        <v>0.003898</v>
+        <v>0.00727</v>
       </c>
     </row>
     <row r="162">
@@ -9433,10 +9433,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.102854</v>
+        <v>0.106021</v>
       </c>
       <c r="D162" t="n">
-        <v>0.09532499999999999</v>
+        <v>0.11944</v>
       </c>
     </row>
     <row r="163">
@@ -9449,10 +9449,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.076166</v>
+        <v>0.077919</v>
       </c>
       <c r="D163" t="n">
-        <v>0.068408</v>
+        <v>0.08641600000000001</v>
       </c>
     </row>
     <row r="164">
@@ -9465,10 +9465,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.077347</v>
+        <v>0.079163</v>
       </c>
       <c r="D164" t="n">
-        <v>0.069504</v>
+        <v>0.08776100000000001</v>
       </c>
     </row>
     <row r="165">
@@ -9481,10 +9481,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.249588</v>
+        <v>0.260531</v>
       </c>
       <c r="D165" t="n">
-        <v>0.247287</v>
+        <v>0.305879</v>
       </c>
     </row>
     <row r="166">
@@ -9497,10 +9497,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.160541</v>
+        <v>0.166766</v>
       </c>
       <c r="D166" t="n">
-        <v>0.15413</v>
+        <v>0.191586</v>
       </c>
     </row>
     <row r="167">
@@ -9513,10 +9513,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.048814</v>
+        <v>0.049118</v>
       </c>
       <c r="D167" t="n">
-        <v>0.047431</v>
+        <v>0.06068</v>
       </c>
     </row>
     <row r="168">
@@ -9529,10 +9529,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.056089</v>
+        <v>0.056779</v>
       </c>
       <c r="D168" t="n">
-        <v>0.05446</v>
+        <v>0.069303</v>
       </c>
     </row>
     <row r="169">
@@ -9545,10 +9545,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.22585</v>
+        <v>0.235535</v>
       </c>
       <c r="D169" t="n">
-        <v>0.223191</v>
+        <v>0.276316</v>
       </c>
     </row>
     <row r="170">
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.297319</v>
+        <v>0.310791</v>
       </c>
       <c r="D171" t="n">
-        <v>0.292392</v>
+        <v>0.361218</v>
       </c>
     </row>
     <row r="172">
@@ -9593,10 +9593,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.042898</v>
+        <v>0.042889</v>
       </c>
       <c r="D172" t="n">
-        <v>0.038602</v>
+        <v>0.049848</v>
       </c>
     </row>
     <row r="173">
@@ -9609,10 +9609,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.0265</v>
+        <v>0.025622</v>
       </c>
       <c r="D173" t="n">
-        <v>0.023407</v>
+        <v>0.031205</v>
       </c>
     </row>
     <row r="174">
@@ -9673,10 +9673,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.088075</v>
+        <v>0.09046</v>
       </c>
       <c r="D177" t="n">
-        <v>0.081815</v>
+        <v>0.102865</v>
       </c>
     </row>
     <row r="178">
@@ -9689,10 +9689,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.049597</v>
+        <v>0.049943</v>
       </c>
       <c r="D178" t="n">
-        <v>0.048728</v>
+        <v>0.062272</v>
       </c>
     </row>
     <row r="179">
@@ -9705,10 +9705,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.032957</v>
+        <v>0.032421</v>
       </c>
       <c r="D179" t="n">
-        <v>0.032377</v>
+        <v>0.042211</v>
       </c>
     </row>
     <row r="180">
@@ -9721,10 +9721,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.047521</v>
+        <v>0.047757</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04644</v>
+        <v>0.059464</v>
       </c>
     </row>
     <row r="181">
@@ -9753,10 +9753,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.023822</v>
+        <v>0.022802</v>
       </c>
       <c r="D182" t="n">
-        <v>0.020843</v>
+        <v>0.028059</v>
       </c>
     </row>
     <row r="183">
@@ -9801,10 +9801,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.060038</v>
+        <v>0.060937</v>
       </c>
       <c r="D185" t="n">
-        <v>0.061602</v>
+        <v>0.078066</v>
       </c>
     </row>
     <row r="186">
@@ -9817,10 +9817,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.012657</v>
+        <v>0.011045</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007375</v>
+        <v>0.011535</v>
       </c>
     </row>
     <row r="187">
@@ -9833,10 +9833,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.012922</v>
+        <v>0.011324</v>
       </c>
       <c r="D187" t="n">
-        <v>0.007578</v>
+        <v>0.011786</v>
       </c>
     </row>
     <row r="188">
@@ -9849,10 +9849,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.029581</v>
+        <v>0.028866</v>
       </c>
       <c r="D188" t="n">
-        <v>0.026333</v>
+        <v>0.034796</v>
       </c>
     </row>
     <row r="189">
@@ -9865,10 +9865,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.353146</v>
+        <v>0.369577</v>
       </c>
       <c r="D189" t="n">
-        <v>0.349076</v>
+        <v>0.430762</v>
       </c>
     </row>
     <row r="190">
@@ -9881,10 +9881,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.254334</v>
+        <v>0.265529</v>
       </c>
       <c r="D190" t="n">
-        <v>0.246935</v>
+        <v>0.305447</v>
       </c>
     </row>
     <row r="191">
@@ -9897,10 +9897,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.143421</v>
+        <v>0.148738</v>
       </c>
       <c r="D191" t="n">
-        <v>0.143608</v>
+        <v>0.178677</v>
       </c>
     </row>
     <row r="192">
@@ -9929,10 +9929,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.287841</v>
+        <v>0.300811</v>
       </c>
       <c r="D193" t="n">
-        <v>0.281294</v>
+        <v>0.347601</v>
       </c>
     </row>
     <row r="194">
@@ -9961,10 +9961,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.117528</v>
+        <v>0.121473</v>
       </c>
       <c r="D195" t="n">
-        <v>0.117479</v>
+        <v>0.14662</v>
       </c>
     </row>
     <row r="196">
@@ -10057,10 +10057,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.080322</v>
+        <v>0.08229599999999999</v>
       </c>
       <c r="D201" t="n">
-        <v>0.073959</v>
+        <v>0.093226</v>
       </c>
     </row>
     <row r="202">
@@ -10073,10 +10073,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.068607</v>
+        <v>0.06995999999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>0.065285</v>
+        <v>0.08258500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10135,10 +10135,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.029419</v>
+        <v>-0.033605</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.026624</v>
+        <v>-0.030318</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002501</v>
+        <v>0.000351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004026</v>
+        <v>0.007427</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002501</v>
+        <v>0.000351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004026</v>
+        <v>0.007427</v>
       </c>
     </row>
     <row r="4">
@@ -10179,16 +10179,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.015876</v>
+        <v>0.016435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.017776</v>
+        <v>0.021966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.015876</v>
+        <v>0.016435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.017776</v>
+        <v>0.021966</v>
       </c>
     </row>
     <row r="5">
@@ -10201,16 +10201,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.002528</v>
+        <v>0.001694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003777</v>
+        <v>0.005589</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002528</v>
+        <v>0.001694</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003777</v>
+        <v>0.005589</v>
       </c>
     </row>
     <row r="6">
@@ -10223,16 +10223,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.042359</v>
+        <v>0.054457</v>
       </c>
       <c r="D6" t="n">
-        <v>0.061827</v>
+        <v>0.062821</v>
       </c>
       <c r="E6" t="n">
-        <v>0.042359</v>
+        <v>0.054457</v>
       </c>
       <c r="F6" t="n">
-        <v>0.061827</v>
+        <v>0.062821</v>
       </c>
     </row>
     <row r="7">
@@ -10245,16 +10245,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.007012</v>
+        <v>0.007625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009409000000000001</v>
+        <v>0.011091</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007012</v>
+        <v>0.007625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009409000000000001</v>
+        <v>0.011091</v>
       </c>
     </row>
     <row r="8">
@@ -10267,16 +10267,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.414628</v>
+        <v>0.443389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.423243</v>
+        <v>0.511186</v>
       </c>
       <c r="E8" t="n">
-        <v>0.414628</v>
+        <v>0.443389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.423243</v>
+        <v>0.511186</v>
       </c>
     </row>
     <row r="9">
@@ -10289,16 +10289,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.372924</v>
+        <v>0.396945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.379137</v>
+        <v>0.460021</v>
       </c>
       <c r="E9" t="n">
-        <v>0.372924</v>
+        <v>0.396945</v>
       </c>
       <c r="F9" t="n">
-        <v>0.379137</v>
+        <v>0.460021</v>
       </c>
     </row>
     <row r="10">
@@ -10311,16 +10311,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04361</v>
+        <v>0.043882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.043841</v>
+        <v>0.055992</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04361</v>
+        <v>0.043882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.043841</v>
+        <v>0.055992</v>
       </c>
     </row>
     <row r="11">
@@ -10333,16 +10333,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.274245</v>
+        <v>0.286495</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317612</v>
+        <v>0.392159</v>
       </c>
       <c r="E11" t="n">
-        <v>0.274245</v>
+        <v>0.286495</v>
       </c>
       <c r="F11" t="n">
-        <v>0.317612</v>
+        <v>0.392159</v>
       </c>
     </row>
     <row r="12">
@@ -10355,10 +10355,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.015645</v>
+        <v>-0.018757</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.009306999999999999</v>
+        <v>-0.008931</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10377,16 +10377,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.033718</v>
+        <v>0.033222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.037954</v>
+        <v>0.049053</v>
       </c>
       <c r="E13" t="n">
-        <v>0.033718</v>
+        <v>0.033222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.037954</v>
+        <v>0.049053</v>
       </c>
     </row>
     <row r="14">
@@ -10399,16 +10399,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.251585</v>
+        <v>0.262634</v>
       </c>
       <c r="D14" t="n">
-        <v>0.256509</v>
+        <v>0.317194</v>
       </c>
       <c r="E14" t="n">
-        <v>0.251585</v>
+        <v>0.262634</v>
       </c>
       <c r="F14" t="n">
-        <v>0.256509</v>
+        <v>0.317194</v>
       </c>
     </row>
     <row r="15">
@@ -10421,10 +10421,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.025547</v>
+        <v>-0.02904</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.025411</v>
+        <v>-0.028856</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.005316</v>
+        <v>-0.00788</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.003588</v>
+        <v>-0.001914</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10465,16 +10465,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01085</v>
+        <v>0.009143</v>
       </c>
       <c r="D17" t="n">
-        <v>0.014547</v>
+        <v>0.020335</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01085</v>
+        <v>0.009143</v>
       </c>
       <c r="F17" t="n">
-        <v>0.014547</v>
+        <v>0.020335</v>
       </c>
     </row>
     <row r="18">
@@ -10487,16 +10487,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.036528</v>
+        <v>0.046937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.046743</v>
+        <v>0.047304</v>
       </c>
       <c r="E18" t="n">
-        <v>0.036528</v>
+        <v>0.046937</v>
       </c>
       <c r="F18" t="n">
-        <v>0.046743</v>
+        <v>0.047304</v>
       </c>
     </row>
     <row r="19">
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.021552</v>
+        <v>0.020871</v>
       </c>
       <c r="D19" t="n">
-        <v>0.021988</v>
+        <v>0.028929</v>
       </c>
       <c r="E19" t="n">
-        <v>0.021552</v>
+        <v>0.020871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.021988</v>
+        <v>0.028929</v>
       </c>
     </row>
     <row r="20">
@@ -10531,16 +10531,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.031208</v>
+        <v>0.030579</v>
       </c>
       <c r="D20" t="n">
-        <v>0.037064</v>
+        <v>0.047961</v>
       </c>
       <c r="E20" t="n">
-        <v>0.031208</v>
+        <v>0.030579</v>
       </c>
       <c r="F20" t="n">
-        <v>0.037064</v>
+        <v>0.047961</v>
       </c>
     </row>
     <row r="21">
@@ -10553,10 +10553,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.025812</v>
+        <v>-0.029462</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02495</v>
+        <v>-0.028123</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10575,10 +10575,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.030915</v>
+        <v>-0.035441</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.030599</v>
+        <v>-0.034503</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -10597,10 +10597,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.015761</v>
+        <v>-0.018879</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.013321</v>
+        <v>-0.013856</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -10619,10 +10619,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.019913</v>
+        <v>-0.022787</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.019472</v>
+        <v>-0.021943</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -10641,16 +10641,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.334159</v>
+        <v>0.349584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.334159</v>
+        <v>0.349584</v>
       </c>
       <c r="E25" t="n">
-        <v>0.334159</v>
+        <v>0.349584</v>
       </c>
       <c r="F25" t="n">
-        <v>0.334159</v>
+        <v>0.349584</v>
       </c>
     </row>
     <row r="26">
@@ -10663,10 +10663,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.02887</v>
+        <v>-0.032932</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.028754</v>
+        <v>-0.03256</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02871</v>
+        <v>-0.032514</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.028464</v>
+        <v>-0.032434</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -10707,16 +10707,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09460300000000001</v>
+        <v>0.097334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09600499999999999</v>
+        <v>0.120275</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09460300000000001</v>
+        <v>0.097334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09600499999999999</v>
+        <v>0.120275</v>
       </c>
     </row>
     <row r="29">
@@ -10729,16 +10729,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.093918</v>
+        <v>0.108706</v>
       </c>
       <c r="D29" t="n">
-        <v>0.105403</v>
+        <v>0.117714</v>
       </c>
       <c r="E29" t="n">
-        <v>0.093918</v>
+        <v>0.108706</v>
       </c>
       <c r="F29" t="n">
-        <v>0.105403</v>
+        <v>0.117714</v>
       </c>
     </row>
     <row r="30">
@@ -10751,16 +10751,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02202</v>
+        <v>0.024727</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02565</v>
+        <v>0.029504</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02202</v>
+        <v>0.024727</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02565</v>
+        <v>0.029504</v>
       </c>
     </row>
     <row r="31">
@@ -10773,10 +10773,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.02435</v>
+        <v>-0.027629</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.024071</v>
+        <v>-0.027386</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -10795,16 +10795,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.005394</v>
+        <v>-0.007963</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0037</v>
+        <v>0.007027</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0037</v>
+        <v>0.007027</v>
       </c>
     </row>
     <row r="33">
@@ -10817,16 +10817,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.046511</v>
+        <v>0.050242</v>
       </c>
       <c r="D33" t="n">
-        <v>0.049881</v>
+        <v>0.059552</v>
       </c>
       <c r="E33" t="n">
-        <v>0.046511</v>
+        <v>0.050242</v>
       </c>
       <c r="F33" t="n">
-        <v>0.049881</v>
+        <v>0.059552</v>
       </c>
     </row>
     <row r="34">
@@ -10839,10 +10839,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.016456</v>
+        <v>-0.017702</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01426</v>
+        <v>-0.017298</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -10861,16 +10861,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.066371</v>
+        <v>0.070508</v>
       </c>
       <c r="D35" t="n">
-        <v>0.069128</v>
+        <v>0.08391700000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.066371</v>
+        <v>0.070508</v>
       </c>
       <c r="F35" t="n">
-        <v>0.069128</v>
+        <v>0.08391700000000001</v>
       </c>
     </row>
     <row r="36">
@@ -10883,16 +10883,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.026782</v>
+        <v>0.025919</v>
       </c>
       <c r="D36" t="n">
-        <v>0.040315</v>
+        <v>0.05195</v>
       </c>
       <c r="E36" t="n">
-        <v>0.026782</v>
+        <v>0.025919</v>
       </c>
       <c r="F36" t="n">
-        <v>0.040315</v>
+        <v>0.05195</v>
       </c>
     </row>
     <row r="37">
@@ -10905,16 +10905,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.056079</v>
+        <v>0.062147</v>
       </c>
       <c r="D37" t="n">
-        <v>0.061187</v>
+        <v>0.07129000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.056079</v>
+        <v>0.062147</v>
       </c>
       <c r="F37" t="n">
-        <v>0.061187</v>
+        <v>0.07129000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -10927,16 +10927,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.197915</v>
+        <v>0.206119</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20774</v>
+        <v>0.25736</v>
       </c>
       <c r="E38" t="n">
-        <v>0.197915</v>
+        <v>0.206119</v>
       </c>
       <c r="F38" t="n">
-        <v>0.20774</v>
+        <v>0.25736</v>
       </c>
     </row>
     <row r="39">
@@ -10949,16 +10949,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.364306</v>
+        <v>0.396497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.378711</v>
+        <v>0.449448</v>
       </c>
       <c r="E39" t="n">
-        <v>0.364306</v>
+        <v>0.396497</v>
       </c>
       <c r="F39" t="n">
-        <v>0.378711</v>
+        <v>0.449448</v>
       </c>
     </row>
     <row r="40">
@@ -10971,10 +10971,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.018194</v>
+        <v>-0.020468</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01727</v>
+        <v>-0.019834</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -10993,16 +10993,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.04458</v>
+        <v>0.048937</v>
       </c>
       <c r="D41" t="n">
-        <v>0.048642</v>
+        <v>0.057182</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04458</v>
+        <v>0.048937</v>
       </c>
       <c r="F41" t="n">
-        <v>0.048642</v>
+        <v>0.057182</v>
       </c>
     </row>
     <row r="42">
@@ -11015,16 +11015,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.029445</v>
+        <v>0.028723</v>
       </c>
       <c r="D42" t="n">
-        <v>0.033729</v>
+        <v>0.04387</v>
       </c>
       <c r="E42" t="n">
-        <v>0.029445</v>
+        <v>0.028723</v>
       </c>
       <c r="F42" t="n">
-        <v>0.033729</v>
+        <v>0.04387</v>
       </c>
     </row>
     <row r="43">
@@ -11037,16 +11037,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.001124</v>
+        <v>0.003867</v>
       </c>
       <c r="D43" t="n">
-        <v>0.013652</v>
+        <v>0.012093</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001124</v>
+        <v>0.003867</v>
       </c>
       <c r="F43" t="n">
-        <v>0.013652</v>
+        <v>0.012093</v>
       </c>
     </row>
     <row r="44">
@@ -11059,16 +11059,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.003137</v>
+        <v>0.001758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003837</v>
+        <v>0.006336</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003137</v>
+        <v>0.001758</v>
       </c>
       <c r="F44" t="n">
-        <v>0.003837</v>
+        <v>0.006336</v>
       </c>
     </row>
     <row r="45">
@@ -11081,16 +11081,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.08357299999999999</v>
+        <v>0.085719</v>
       </c>
       <c r="D45" t="n">
-        <v>0.090591</v>
+        <v>0.113632</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08357299999999999</v>
+        <v>0.085719</v>
       </c>
       <c r="F45" t="n">
-        <v>0.090591</v>
+        <v>0.113632</v>
       </c>
     </row>
     <row r="46">
@@ -11103,16 +11103,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.130515</v>
+        <v>0.135149</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140813</v>
+        <v>0.175249</v>
       </c>
       <c r="E46" t="n">
-        <v>0.130515</v>
+        <v>0.135149</v>
       </c>
       <c r="F46" t="n">
-        <v>0.140813</v>
+        <v>0.175249</v>
       </c>
     </row>
     <row r="47">
@@ -11125,16 +11125,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.011002</v>
+        <v>0.01364</v>
       </c>
       <c r="D47" t="n">
-        <v>0.015121</v>
+        <v>0.015986</v>
       </c>
       <c r="E47" t="n">
-        <v>0.011002</v>
+        <v>0.01364</v>
       </c>
       <c r="F47" t="n">
-        <v>0.015121</v>
+        <v>0.015986</v>
       </c>
     </row>
     <row r="48">
@@ -11147,10 +11147,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.025695</v>
+        <v>-0.02934</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.024983</v>
+        <v>-0.028163</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -11169,16 +11169,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.336568</v>
+        <v>0.352121</v>
       </c>
       <c r="D49" t="n">
-        <v>0.340912</v>
+        <v>0.420746</v>
       </c>
       <c r="E49" t="n">
-        <v>0.336568</v>
+        <v>0.352121</v>
       </c>
       <c r="F49" t="n">
-        <v>0.340912</v>
+        <v>0.420746</v>
       </c>
     </row>
     <row r="50">
@@ -11191,16 +11191,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.19473</v>
+        <v>0.207447</v>
       </c>
       <c r="D50" t="n">
-        <v>0.199176</v>
+        <v>0.241398</v>
       </c>
       <c r="E50" t="n">
-        <v>0.19473</v>
+        <v>0.207447</v>
       </c>
       <c r="F50" t="n">
-        <v>0.199176</v>
+        <v>0.241398</v>
       </c>
     </row>
     <row r="51">
@@ -11213,16 +11213,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.073004</v>
+        <v>0.07459</v>
       </c>
       <c r="D51" t="n">
-        <v>0.083427</v>
+        <v>0.104843</v>
       </c>
       <c r="E51" t="n">
-        <v>0.073004</v>
+        <v>0.07459</v>
       </c>
       <c r="F51" t="n">
-        <v>0.083427</v>
+        <v>0.104843</v>
       </c>
     </row>
     <row r="52">
@@ -11235,10 +11235,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.027668</v>
+        <v>-0.031457</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.027346</v>
+        <v>-0.031078</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -11257,16 +11257,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.001657</v>
+        <v>-0.004027</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.001069</v>
+        <v>0.001177</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.001177</v>
       </c>
     </row>
     <row r="54">
@@ -11279,16 +11279,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.370225</v>
+        <v>0.387561</v>
       </c>
       <c r="D54" t="n">
-        <v>0.373028</v>
+        <v>0.460148</v>
       </c>
       <c r="E54" t="n">
-        <v>0.370225</v>
+        <v>0.387561</v>
       </c>
       <c r="F54" t="n">
-        <v>0.373028</v>
+        <v>0.460148</v>
       </c>
     </row>
     <row r="55">
@@ -11301,10 +11301,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.010038</v>
+        <v>-0.010683</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.007977</v>
+        <v>-0.009827000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -11323,16 +11323,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.05035</v>
+        <v>0.064261</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06375400000000001</v>
+        <v>0.06485</v>
       </c>
       <c r="E56" t="n">
-        <v>0.05035</v>
+        <v>0.064261</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06375400000000001</v>
+        <v>0.06485</v>
       </c>
     </row>
     <row r="57">
@@ -11345,16 +11345,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.000659</v>
+        <v>-0.001589</v>
       </c>
       <c r="D57" t="n">
-        <v>0.000995</v>
+        <v>0.003709</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000659</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.000995</v>
+        <v>0.003709</v>
       </c>
     </row>
     <row r="58">
@@ -11367,10 +11367,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.021832</v>
+        <v>-0.025</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.021574</v>
+        <v>-0.024297</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -11389,10 +11389,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.028981</v>
+        <v>-0.032799</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.028567</v>
+        <v>-0.032561</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -11411,10 +11411,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.021889</v>
+        <v>-0.024368</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.020328</v>
+        <v>-0.023688</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -11433,10 +11433,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.010406</v>
+        <v>-0.01324</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.009788</v>
+        <v>-0.009521</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -11455,16 +11455,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.065377</v>
+        <v>0.067437</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06621100000000001</v>
+        <v>0.08269700000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0.065377</v>
+        <v>0.067437</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06621100000000001</v>
+        <v>0.08269700000000001</v>
       </c>
     </row>
     <row r="63">
@@ -11477,16 +11477,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.09963900000000001</v>
+        <v>0.102636</v>
       </c>
       <c r="D63" t="n">
-        <v>0.101426</v>
+        <v>0.126925</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09963900000000001</v>
+        <v>0.102636</v>
       </c>
       <c r="F63" t="n">
-        <v>0.101426</v>
+        <v>0.126925</v>
       </c>
     </row>
     <row r="64">
@@ -11499,10 +11499,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.015519</v>
+        <v>-0.017862</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.014795</v>
+        <v>-0.016553</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -11521,16 +11521,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.019656</v>
+        <v>0.018414</v>
       </c>
       <c r="D65" t="n">
-        <v>0.020207</v>
+        <v>0.027279</v>
       </c>
       <c r="E65" t="n">
-        <v>0.019656</v>
+        <v>0.018414</v>
       </c>
       <c r="F65" t="n">
-        <v>0.020207</v>
+        <v>0.027279</v>
       </c>
     </row>
     <row r="66">
@@ -11543,16 +11543,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.003344</v>
+        <v>0.006591</v>
       </c>
       <c r="D66" t="n">
-        <v>0.019515</v>
+        <v>0.018266</v>
       </c>
       <c r="E66" t="n">
-        <v>0.003344</v>
+        <v>0.006591</v>
       </c>
       <c r="F66" t="n">
-        <v>0.019515</v>
+        <v>0.018266</v>
       </c>
     </row>
     <row r="67">
@@ -11565,16 +11565,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.045294</v>
+        <v>0.045411</v>
       </c>
       <c r="D67" t="n">
-        <v>0.064114</v>
+        <v>0.081148</v>
       </c>
       <c r="E67" t="n">
-        <v>0.045294</v>
+        <v>0.045411</v>
       </c>
       <c r="F67" t="n">
-        <v>0.064114</v>
+        <v>0.081148</v>
       </c>
     </row>
     <row r="68">
@@ -11587,16 +11587,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.871345</v>
+        <v>0.915236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8883490000000001</v>
+        <v>1.092384</v>
       </c>
       <c r="E68" t="n">
-        <v>0.871345</v>
+        <v>0.915236</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8883490000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -11609,16 +11609,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.226782</v>
+        <v>0.236516</v>
       </c>
       <c r="D69" t="n">
-        <v>0.234108</v>
+        <v>0.28971</v>
       </c>
       <c r="E69" t="n">
-        <v>0.226782</v>
+        <v>0.236516</v>
       </c>
       <c r="F69" t="n">
-        <v>0.234108</v>
+        <v>0.28971</v>
       </c>
     </row>
     <row r="70">
@@ -11631,16 +11631,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.200918</v>
+        <v>0.214746</v>
       </c>
       <c r="D70" t="n">
-        <v>0.206107</v>
+        <v>0.248989</v>
       </c>
       <c r="E70" t="n">
-        <v>0.200918</v>
+        <v>0.214746</v>
       </c>
       <c r="F70" t="n">
-        <v>0.206107</v>
+        <v>0.248989</v>
       </c>
     </row>
     <row r="71">
@@ -11653,16 +11653,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.003081</v>
+        <v>0.00153</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003621</v>
+        <v>0.006268</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003081</v>
+        <v>0.00153</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003621</v>
+        <v>0.006268</v>
       </c>
     </row>
     <row r="72">
@@ -11675,16 +11675,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.330933</v>
+        <v>0.346187</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339886</v>
+        <v>0.419487</v>
       </c>
       <c r="E72" t="n">
-        <v>0.330933</v>
+        <v>0.346187</v>
       </c>
       <c r="F72" t="n">
-        <v>0.339886</v>
+        <v>0.419487</v>
       </c>
     </row>
     <row r="73">
@@ -11697,16 +11697,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.000613</v>
+        <v>-0.001049</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001171</v>
+        <v>0.00324</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000613</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001171</v>
+        <v>0.00324</v>
       </c>
     </row>
     <row r="74">
@@ -11719,16 +11719,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.07231600000000001</v>
+        <v>0.09121</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09522700000000001</v>
+        <v>0.09798999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07231600000000001</v>
+        <v>0.09121</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09522700000000001</v>
+        <v>0.09798999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -11741,10 +11741,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.021555</v>
+        <v>-0.02498</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.020974</v>
+        <v>-0.023245</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -11763,16 +11763,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.30284</v>
+        <v>0.349741</v>
       </c>
       <c r="D76" t="n">
-        <v>0.334309</v>
+        <v>0.374036</v>
       </c>
       <c r="E76" t="n">
-        <v>0.30284</v>
+        <v>0.349741</v>
       </c>
       <c r="F76" t="n">
-        <v>0.334309</v>
+        <v>0.374036</v>
       </c>
     </row>
     <row r="77">
@@ -11785,16 +11785,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.006707</v>
+        <v>0.005037</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006951</v>
+        <v>0.010717</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006707</v>
+        <v>0.005037</v>
       </c>
       <c r="F77" t="n">
-        <v>0.006951</v>
+        <v>0.010717</v>
       </c>
     </row>
     <row r="78">
@@ -11807,16 +11807,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.455537</v>
+        <v>0.477393</v>
       </c>
       <c r="D78" t="n">
-        <v>0.542791</v>
+        <v>0.668426</v>
       </c>
       <c r="E78" t="n">
-        <v>0.455537</v>
+        <v>0.477393</v>
       </c>
       <c r="F78" t="n">
-        <v>0.542791</v>
+        <v>0.668426</v>
       </c>
     </row>
     <row r="79">
@@ -11829,10 +11829,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.019867</v>
+        <v>-0.023202</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.019116</v>
+        <v>-0.020965</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -11851,10 +11851,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.005387</v>
+        <v>-0.007184</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.004654</v>
+        <v>-0.004121</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -11873,16 +11873,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.074144</v>
+        <v>0.07579</v>
       </c>
       <c r="D81" t="n">
-        <v>0.076885</v>
+        <v>0.096816</v>
       </c>
       <c r="E81" t="n">
-        <v>0.074144</v>
+        <v>0.07579</v>
       </c>
       <c r="F81" t="n">
-        <v>0.076885</v>
+        <v>0.096816</v>
       </c>
     </row>
     <row r="82">
@@ -11895,16 +11895,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.004119</v>
+        <v>0.003146</v>
       </c>
       <c r="D82" t="n">
-        <v>0.005155</v>
+        <v>0.007542</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004119</v>
+        <v>0.003146</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005155</v>
+        <v>0.007542</v>
       </c>
     </row>
     <row r="83">
@@ -11917,10 +11917,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.020881</v>
+        <v>-0.02313</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.019551</v>
+        <v>-0.02287</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -11939,10 +11939,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.028047</v>
+        <v>-0.031922</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.027915</v>
+        <v>-0.031677</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -11961,16 +11961,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.119543</v>
+        <v>0.123595</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131716</v>
+        <v>0.164087</v>
       </c>
       <c r="E85" t="n">
-        <v>0.119543</v>
+        <v>0.123595</v>
       </c>
       <c r="F85" t="n">
-        <v>0.131716</v>
+        <v>0.164087</v>
       </c>
     </row>
     <row r="86">
@@ -11983,16 +11983,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.126026</v>
+        <v>0.130422</v>
       </c>
       <c r="D86" t="n">
-        <v>0.127138</v>
+        <v>0.158471</v>
       </c>
       <c r="E86" t="n">
-        <v>0.126026</v>
+        <v>0.130422</v>
       </c>
       <c r="F86" t="n">
-        <v>0.127138</v>
+        <v>0.158471</v>
       </c>
     </row>
     <row r="87">
@@ -12005,10 +12005,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.02833</v>
+        <v>-0.032114</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.027987</v>
+        <v>-0.031849</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -12027,10 +12027,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.029623</v>
+        <v>-0.033476</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.028201</v>
+        <v>-0.032111</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -12049,16 +12049,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.102185</v>
+        <v>0.112058</v>
       </c>
       <c r="D89" t="n">
-        <v>0.108586</v>
+        <v>0.127857</v>
       </c>
       <c r="E89" t="n">
-        <v>0.102185</v>
+        <v>0.112058</v>
       </c>
       <c r="F89" t="n">
-        <v>0.108586</v>
+        <v>0.127857</v>
       </c>
     </row>
     <row r="90">
@@ -12071,10 +12071,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.027178</v>
+        <v>-0.030901</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.026036</v>
+        <v>-0.029455</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -12093,10 +12093,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.021013</v>
+        <v>-0.024409</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01524</v>
+        <v>-0.01621</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -12115,16 +12115,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.030212</v>
+        <v>0.039555</v>
       </c>
       <c r="D92" t="n">
-        <v>0.063207</v>
+        <v>0.064274</v>
       </c>
       <c r="E92" t="n">
-        <v>0.030212</v>
+        <v>0.039555</v>
       </c>
       <c r="F92" t="n">
-        <v>0.063207</v>
+        <v>0.064274</v>
       </c>
     </row>
     <row r="93">
@@ -12137,16 +12137,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.06336600000000001</v>
+        <v>0.064441</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06851599999999999</v>
+        <v>0.086549</v>
       </c>
       <c r="E93" t="n">
-        <v>0.06336600000000001</v>
+        <v>0.064441</v>
       </c>
       <c r="F93" t="n">
-        <v>0.06851599999999999</v>
+        <v>0.086549</v>
       </c>
     </row>
     <row r="94">
@@ -12159,16 +12159,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.004541</v>
+        <v>-0.007065</v>
       </c>
       <c r="D94" t="n">
-        <v>0.000812</v>
+        <v>0.003484</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.000812</v>
+        <v>0.003484</v>
       </c>
     </row>
     <row r="95">
@@ -12181,16 +12181,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.011329</v>
+        <v>0.009646999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.022041</v>
+        <v>0.02953</v>
       </c>
       <c r="E95" t="n">
-        <v>0.011329</v>
+        <v>0.009646999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>0.022041</v>
+        <v>0.02953</v>
       </c>
     </row>
     <row r="96">
@@ -12203,10 +12203,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.002906</v>
+        <v>-0.003829</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.001469</v>
+        <v>-0.001078</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -12225,10 +12225,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.02782</v>
+        <v>-0.031644</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.027738</v>
+        <v>-0.03149</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -12247,10 +12247,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.015901</v>
+        <v>-0.01702</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.011935</v>
+        <v>-0.01485</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -12269,16 +12269,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.010353</v>
+        <v>0.008619</v>
       </c>
       <c r="D99" t="n">
-        <v>0.012817</v>
+        <v>0.018212</v>
       </c>
       <c r="E99" t="n">
-        <v>0.010353</v>
+        <v>0.008619</v>
       </c>
       <c r="F99" t="n">
-        <v>0.012817</v>
+        <v>0.018212</v>
       </c>
     </row>
     <row r="100">
@@ -12291,10 +12291,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.026727</v>
+        <v>-0.030312</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.026619</v>
+        <v>-0.030302</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -12313,16 +12313,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.264034</v>
+        <v>0.286852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.274584</v>
+        <v>0.326426</v>
       </c>
       <c r="E101" t="n">
-        <v>0.264034</v>
+        <v>0.286852</v>
       </c>
       <c r="F101" t="n">
-        <v>0.274584</v>
+        <v>0.326426</v>
       </c>
     </row>
     <row r="102">
@@ -12335,16 +12335,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.248857</v>
+        <v>0.268555</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257208</v>
+        <v>0.307805</v>
       </c>
       <c r="E102" t="n">
-        <v>0.248857</v>
+        <v>0.268555</v>
       </c>
       <c r="F102" t="n">
-        <v>0.257208</v>
+        <v>0.307805</v>
       </c>
     </row>
     <row r="103">
@@ -12357,10 +12357,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.016686</v>
+        <v>-0.018286</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.015198</v>
+        <v>-0.017984</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -12379,10 +12379,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.028045</v>
+        <v>-0.03192</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.027831</v>
+        <v>-0.031588</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -12401,10 +12401,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.015421</v>
+        <v>-0.018521</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.01231</v>
+        <v>-0.012615</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -12423,16 +12423,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.008488000000000001</v>
+        <v>0.006655</v>
       </c>
       <c r="D106" t="n">
-        <v>0.014493</v>
+        <v>0.020269</v>
       </c>
       <c r="E106" t="n">
-        <v>0.008488000000000001</v>
+        <v>0.006655</v>
       </c>
       <c r="F106" t="n">
-        <v>0.014493</v>
+        <v>0.020269</v>
       </c>
     </row>
     <row r="107">
@@ -12445,16 +12445,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.672269</v>
+        <v>0.778381</v>
       </c>
       <c r="D107" t="n">
-        <v>0.741377</v>
+        <v>0.82728</v>
       </c>
       <c r="E107" t="n">
-        <v>0.672269</v>
+        <v>0.778381</v>
       </c>
       <c r="F107" t="n">
-        <v>0.741377</v>
+        <v>0.82728</v>
       </c>
     </row>
     <row r="108">
@@ -12467,16 +12467,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.283733</v>
+        <v>0.29789</v>
       </c>
       <c r="D108" t="n">
-        <v>0.285066</v>
+        <v>0.350594</v>
       </c>
       <c r="E108" t="n">
-        <v>0.283733</v>
+        <v>0.29789</v>
       </c>
       <c r="F108" t="n">
-        <v>0.285066</v>
+        <v>0.350594</v>
       </c>
     </row>
     <row r="109">
@@ -12489,10 +12489,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.022655</v>
+        <v>-0.025547</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.022093</v>
+        <v>-0.025307</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -12511,16 +12511,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.113104</v>
+        <v>0.116814</v>
       </c>
       <c r="D110" t="n">
-        <v>0.11883</v>
+        <v>0.148278</v>
       </c>
       <c r="E110" t="n">
-        <v>0.113104</v>
+        <v>0.116814</v>
       </c>
       <c r="F110" t="n">
-        <v>0.11883</v>
+        <v>0.148278</v>
       </c>
     </row>
     <row r="111">
@@ -12533,16 +12533,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.001124</v>
+        <v>-0.002283</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>0.001109</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>0.001109</v>
       </c>
     </row>
     <row r="112">
@@ -12555,16 +12555,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.030122</v>
+        <v>0.039197</v>
       </c>
       <c r="D112" t="n">
-        <v>0.039392</v>
+        <v>0.039444</v>
       </c>
       <c r="E112" t="n">
-        <v>0.030122</v>
+        <v>0.039197</v>
       </c>
       <c r="F112" t="n">
-        <v>0.039392</v>
+        <v>0.039444</v>
       </c>
     </row>
     <row r="113">
@@ -12577,16 +12577,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.034123</v>
+        <v>0.033649</v>
       </c>
       <c r="D113" t="n">
-        <v>0.036282</v>
+        <v>0.047002</v>
       </c>
       <c r="E113" t="n">
-        <v>0.034123</v>
+        <v>0.033649</v>
       </c>
       <c r="F113" t="n">
-        <v>0.036282</v>
+        <v>0.047002</v>
       </c>
     </row>
     <row r="114">
@@ -12599,16 +12599,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.001544</v>
+        <v>0.004382</v>
       </c>
       <c r="D114" t="n">
-        <v>0.006341</v>
+        <v>0.004395</v>
       </c>
       <c r="E114" t="n">
-        <v>0.001544</v>
+        <v>0.004382</v>
       </c>
       <c r="F114" t="n">
-        <v>0.006341</v>
+        <v>0.004395</v>
       </c>
     </row>
     <row r="115">
@@ -12621,16 +12621,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.112582</v>
+        <v>0.124042</v>
       </c>
       <c r="D115" t="n">
-        <v>0.119967</v>
+        <v>0.140612</v>
       </c>
       <c r="E115" t="n">
-        <v>0.112582</v>
+        <v>0.124042</v>
       </c>
       <c r="F115" t="n">
-        <v>0.119967</v>
+        <v>0.140612</v>
       </c>
     </row>
     <row r="116">
@@ -12643,16 +12643,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.109306</v>
+        <v>0.116278</v>
       </c>
       <c r="D116" t="n">
-        <v>0.112594</v>
+        <v>0.136594</v>
       </c>
       <c r="E116" t="n">
-        <v>0.109306</v>
+        <v>0.116278</v>
       </c>
       <c r="F116" t="n">
-        <v>0.112594</v>
+        <v>0.136594</v>
       </c>
     </row>
     <row r="117">
@@ -12665,16 +12665,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.505337</v>
+        <v>0.622475</v>
       </c>
       <c r="D117" t="n">
-        <v>0.505337</v>
+        <v>0.622475</v>
       </c>
       <c r="E117" t="n">
-        <v>0.505337</v>
+        <v>0.622475</v>
       </c>
       <c r="F117" t="n">
-        <v>0.505337</v>
+        <v>0.622475</v>
       </c>
     </row>
     <row r="118">
@@ -12687,10 +12687,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.111651</v>
+        <v>1.186181</v>
       </c>
       <c r="D118" t="n">
-        <v>1.128655</v>
+        <v>1.366349</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
@@ -12709,16 +12709,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.07803499999999999</v>
+        <v>0.079888</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08304499999999999</v>
+        <v>0.104374</v>
       </c>
       <c r="E119" t="n">
-        <v>0.07803499999999999</v>
+        <v>0.079888</v>
       </c>
       <c r="F119" t="n">
-        <v>0.08304499999999999</v>
+        <v>0.104374</v>
       </c>
     </row>
     <row r="120">
@@ -12731,16 +12731,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.07267</v>
+        <v>0.074238</v>
       </c>
       <c r="D120" t="n">
-        <v>0.08927499999999999</v>
+        <v>0.112017</v>
       </c>
       <c r="E120" t="n">
-        <v>0.07267</v>
+        <v>0.074238</v>
       </c>
       <c r="F120" t="n">
-        <v>0.08927499999999999</v>
+        <v>0.112017</v>
       </c>
     </row>
     <row r="121">
@@ -12753,10 +12753,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-0.026793</v>
+        <v>-0.030383</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.026231</v>
+        <v>-0.029904</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -12775,16 +12775,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.246244</v>
+        <v>0.25701</v>
       </c>
       <c r="D122" t="n">
-        <v>0.307116</v>
+        <v>0.379282</v>
       </c>
       <c r="E122" t="n">
-        <v>0.246244</v>
+        <v>0.25701</v>
       </c>
       <c r="F122" t="n">
-        <v>0.307116</v>
+        <v>0.379282</v>
       </c>
     </row>
     <row r="123">
@@ -12797,10 +12797,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-0.020613</v>
+        <v>-0.023915</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.020544</v>
+        <v>-0.022802</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -12819,16 +12819,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.026574</v>
+        <v>0.025699</v>
       </c>
       <c r="D124" t="n">
-        <v>0.029245</v>
+        <v>0.038368</v>
       </c>
       <c r="E124" t="n">
-        <v>0.026574</v>
+        <v>0.025699</v>
       </c>
       <c r="F124" t="n">
-        <v>0.029245</v>
+        <v>0.038368</v>
       </c>
     </row>
     <row r="125">
@@ -12841,10 +12841,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.030774</v>
+        <v>-0.035268</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.030724</v>
+        <v>-0.034635</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -12863,16 +12863,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.477569</v>
+        <v>0.508039</v>
       </c>
       <c r="D126" t="n">
-        <v>0.48464</v>
+        <v>0.588407</v>
       </c>
       <c r="E126" t="n">
-        <v>0.477569</v>
+        <v>0.508039</v>
       </c>
       <c r="F126" t="n">
-        <v>0.48464</v>
+        <v>0.588407</v>
       </c>
     </row>
     <row r="127">
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.15363</v>
+        <v>0.165368</v>
       </c>
       <c r="D127" t="n">
-        <v>0.159214</v>
+        <v>0.190973</v>
       </c>
       <c r="E127" t="n">
-        <v>0.15363</v>
+        <v>0.165368</v>
       </c>
       <c r="F127" t="n">
-        <v>0.159214</v>
+        <v>0.190973</v>
       </c>
     </row>
     <row r="128">
@@ -12907,16 +12907,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.209575</v>
+        <v>0.222317</v>
       </c>
       <c r="D128" t="n">
-        <v>0.213297</v>
+        <v>0.25961</v>
       </c>
       <c r="E128" t="n">
-        <v>0.209575</v>
+        <v>0.222317</v>
       </c>
       <c r="F128" t="n">
-        <v>0.213297</v>
+        <v>0.25961</v>
       </c>
     </row>
     <row r="129">
@@ -12929,16 +12929,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.015908</v>
+        <v>0.014468</v>
       </c>
       <c r="D129" t="n">
-        <v>0.019055</v>
+        <v>0.025866</v>
       </c>
       <c r="E129" t="n">
-        <v>0.015908</v>
+        <v>0.014468</v>
       </c>
       <c r="F129" t="n">
-        <v>0.019055</v>
+        <v>0.025866</v>
       </c>
     </row>
     <row r="130">
@@ -12951,16 +12951,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.158552</v>
+        <v>0.168012</v>
       </c>
       <c r="D130" t="n">
-        <v>0.161725</v>
+        <v>0.197013</v>
       </c>
       <c r="E130" t="n">
-        <v>0.158552</v>
+        <v>0.168012</v>
       </c>
       <c r="F130" t="n">
-        <v>0.161725</v>
+        <v>0.197013</v>
       </c>
     </row>
     <row r="131">
@@ -12973,16 +12973,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.006564</v>
+        <v>0.010541</v>
       </c>
       <c r="D131" t="n">
-        <v>0.013858</v>
+        <v>0.01231</v>
       </c>
       <c r="E131" t="n">
-        <v>0.006564</v>
+        <v>0.010541</v>
       </c>
       <c r="F131" t="n">
-        <v>0.013858</v>
+        <v>0.01231</v>
       </c>
     </row>
     <row r="132">
@@ -12995,10 +12995,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0.02646</v>
+        <v>-0.029975</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.020896</v>
+        <v>-0.024286</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -13017,16 +13017,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.333362</v>
+        <v>0.378049</v>
       </c>
       <c r="D133" t="n">
-        <v>0.361192</v>
+        <v>0.411482</v>
       </c>
       <c r="E133" t="n">
-        <v>0.333362</v>
+        <v>0.378049</v>
       </c>
       <c r="F133" t="n">
-        <v>0.361192</v>
+        <v>0.411482</v>
       </c>
     </row>
     <row r="134">
@@ -13039,16 +13039,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.635593</v>
+        <v>0.779706</v>
       </c>
       <c r="D134" t="n">
-        <v>0.742636</v>
+        <v>0.782284</v>
       </c>
       <c r="E134" t="n">
-        <v>0.635593</v>
+        <v>0.779706</v>
       </c>
       <c r="F134" t="n">
-        <v>0.742636</v>
+        <v>0.782284</v>
       </c>
     </row>
     <row r="135">
@@ -13061,10 +13061,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.026785</v>
+        <v>-0.030487</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.025974</v>
+        <v>-0.029379</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -13083,10 +13083,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-0.022245</v>
+        <v>-0.024804</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.015513</v>
+        <v>-0.018618</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -13105,10 +13105,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.022299</v>
+        <v>-0.025181</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.021746</v>
+        <v>-0.024871</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -13127,16 +13127,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.043339</v>
+        <v>0.043353</v>
       </c>
       <c r="D138" t="n">
-        <v>0.050555</v>
+        <v>0.064512</v>
       </c>
       <c r="E138" t="n">
-        <v>0.043339</v>
+        <v>0.043353</v>
       </c>
       <c r="F138" t="n">
-        <v>0.050555</v>
+        <v>0.064512</v>
       </c>
     </row>
     <row r="139">
@@ -13149,10 +13149,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-0.016186</v>
+        <v>-0.018945</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.015824</v>
+        <v>-0.017371</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -13171,10 +13171,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.028054</v>
+        <v>-0.031824</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.025727</v>
+        <v>-0.029077</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -13193,16 +13193,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.15896</v>
+        <v>0.169112</v>
       </c>
       <c r="D141" t="n">
-        <v>0.162769</v>
+        <v>0.197513</v>
       </c>
       <c r="E141" t="n">
-        <v>0.15896</v>
+        <v>0.169112</v>
       </c>
       <c r="F141" t="n">
-        <v>0.162769</v>
+        <v>0.197513</v>
       </c>
     </row>
     <row r="142">
@@ -13215,16 +13215,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-0.005747</v>
+        <v>-0.004564</v>
       </c>
       <c r="D142" t="n">
-        <v>0.000123</v>
+        <v>-0.002153</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -13237,16 +13237,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.047943</v>
+        <v>0.061308</v>
       </c>
       <c r="D143" t="n">
-        <v>0.078571</v>
+        <v>0.080452</v>
       </c>
       <c r="E143" t="n">
-        <v>0.047943</v>
+        <v>0.061308</v>
       </c>
       <c r="F143" t="n">
-        <v>0.078571</v>
+        <v>0.080452</v>
       </c>
     </row>
     <row r="144">
@@ -13259,16 +13259,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.06734999999999999</v>
+        <v>0.085118</v>
       </c>
       <c r="D144" t="n">
-        <v>0.06734999999999999</v>
+        <v>0.085118</v>
       </c>
       <c r="E144" t="n">
-        <v>0.06734999999999999</v>
+        <v>0.085118</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06734999999999999</v>
+        <v>0.085118</v>
       </c>
     </row>
     <row r="145">
@@ -13281,10 +13281,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-0.024646</v>
+        <v>-0.027749</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.023016</v>
+        <v>-0.026518</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -13303,10 +13303,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.014884</v>
+        <v>-0.017956</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.006558</v>
+        <v>-0.005558</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -13325,16 +13325,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.592614</v>
+        <v>0.621735</v>
       </c>
       <c r="D147" t="n">
-        <v>0.616585</v>
+        <v>0.7589630000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>0.592614</v>
+        <v>0.621735</v>
       </c>
       <c r="F147" t="n">
-        <v>0.616585</v>
+        <v>0.7589630000000001</v>
       </c>
     </row>
     <row r="148">
@@ -13347,16 +13347,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.210607</v>
+        <v>0.260878</v>
       </c>
       <c r="D148" t="n">
-        <v>0.253162</v>
+        <v>0.264294</v>
       </c>
       <c r="E148" t="n">
-        <v>0.210607</v>
+        <v>0.260878</v>
       </c>
       <c r="F148" t="n">
-        <v>0.253162</v>
+        <v>0.264294</v>
       </c>
     </row>
     <row r="149">
@@ -13369,16 +13369,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.350291</v>
+        <v>0.371896</v>
       </c>
       <c r="D149" t="n">
-        <v>0.355349</v>
+        <v>0.432253</v>
       </c>
       <c r="E149" t="n">
-        <v>0.350291</v>
+        <v>0.371896</v>
       </c>
       <c r="F149" t="n">
-        <v>0.355349</v>
+        <v>0.432253</v>
       </c>
     </row>
     <row r="150">
@@ -13391,16 +13391,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.07063999999999999</v>
+        <v>0.089155</v>
       </c>
       <c r="D150" t="n">
-        <v>0.102711</v>
+        <v>0.105871</v>
       </c>
       <c r="E150" t="n">
-        <v>0.07063999999999999</v>
+        <v>0.089155</v>
       </c>
       <c r="F150" t="n">
-        <v>0.102711</v>
+        <v>0.105871</v>
       </c>
     </row>
     <row r="151">
@@ -13413,10 +13413,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-0.013651</v>
+        <v>-0.014261</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.004966</v>
+        <v>-0.007512</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -13435,16 +13435,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.008737</v>
+        <v>0.006917</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009549</v>
+        <v>0.014204</v>
       </c>
       <c r="E152" t="n">
-        <v>0.008737</v>
+        <v>0.006917</v>
       </c>
       <c r="F152" t="n">
-        <v>0.009549</v>
+        <v>0.014204</v>
       </c>
     </row>
     <row r="153">
@@ -13457,10 +13457,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.010048</v>
+        <v>-0.01281</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.009997000000000001</v>
+        <v>-0.00984</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -13479,10 +13479,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>-0.017459</v>
+        <v>-0.019824</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.016659</v>
+        <v>-0.018932</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -13501,10 +13501,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-0.021858</v>
+        <v>-0.025299</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.017065</v>
+        <v>-0.018449</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -13523,10 +13523,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.018957</v>
+        <v>-0.021927</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.018656</v>
+        <v>-0.02077</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -13545,10 +13545,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>-0.017879</v>
+        <v>-0.021109</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.016426</v>
+        <v>-0.017665</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -13567,16 +13567,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.052358</v>
+        <v>0.05285</v>
       </c>
       <c r="D158" t="n">
-        <v>0.056536</v>
+        <v>0.07185</v>
       </c>
       <c r="E158" t="n">
-        <v>0.052358</v>
+        <v>0.05285</v>
       </c>
       <c r="F158" t="n">
-        <v>0.056536</v>
+        <v>0.07185</v>
       </c>
     </row>
     <row r="159">
@@ -13589,16 +13589,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.049146</v>
+        <v>0.05059</v>
       </c>
       <c r="D159" t="n">
-        <v>0.050212</v>
+        <v>0.06278400000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>0.049146</v>
+        <v>0.05059</v>
       </c>
       <c r="F159" t="n">
-        <v>0.050212</v>
+        <v>0.06278400000000001</v>
       </c>
     </row>
     <row r="160">
@@ -13611,16 +13611,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.113128</v>
+        <v>0.11733</v>
       </c>
       <c r="D160" t="n">
-        <v>0.113593</v>
+        <v>0.141282</v>
       </c>
       <c r="E160" t="n">
-        <v>0.113128</v>
+        <v>0.11733</v>
       </c>
       <c r="F160" t="n">
-        <v>0.113593</v>
+        <v>0.141282</v>
       </c>
     </row>
     <row r="161">
@@ -13633,16 +13633,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.003898</v>
+        <v>0.00323</v>
       </c>
       <c r="D161" t="n">
-        <v>0.005235</v>
+        <v>0.00727</v>
       </c>
       <c r="E161" t="n">
-        <v>0.003898</v>
+        <v>0.00323</v>
       </c>
       <c r="F161" t="n">
-        <v>0.005235</v>
+        <v>0.00727</v>
       </c>
     </row>
     <row r="162">
@@ -13655,16 +13655,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.09532499999999999</v>
+        <v>0.106021</v>
       </c>
       <c r="D162" t="n">
-        <v>0.102854</v>
+        <v>0.11944</v>
       </c>
       <c r="E162" t="n">
-        <v>0.09532499999999999</v>
+        <v>0.106021</v>
       </c>
       <c r="F162" t="n">
-        <v>0.102854</v>
+        <v>0.11944</v>
       </c>
     </row>
     <row r="163">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.068408</v>
+        <v>0.077919</v>
       </c>
       <c r="D163" t="n">
-        <v>0.076166</v>
+        <v>0.08641600000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>0.068408</v>
+        <v>0.077919</v>
       </c>
       <c r="F163" t="n">
-        <v>0.076166</v>
+        <v>0.08641600000000001</v>
       </c>
     </row>
     <row r="164">
@@ -13699,16 +13699,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.069504</v>
+        <v>0.079163</v>
       </c>
       <c r="D164" t="n">
-        <v>0.077347</v>
+        <v>0.08776100000000001</v>
       </c>
       <c r="E164" t="n">
-        <v>0.069504</v>
+        <v>0.079163</v>
       </c>
       <c r="F164" t="n">
-        <v>0.077347</v>
+        <v>0.08776100000000001</v>
       </c>
     </row>
     <row r="165">
@@ -13721,16 +13721,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.247287</v>
+        <v>0.260531</v>
       </c>
       <c r="D165" t="n">
-        <v>0.249588</v>
+        <v>0.305879</v>
       </c>
       <c r="E165" t="n">
-        <v>0.247287</v>
+        <v>0.260531</v>
       </c>
       <c r="F165" t="n">
-        <v>0.249588</v>
+        <v>0.305879</v>
       </c>
     </row>
     <row r="166">
@@ -13743,16 +13743,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.15413</v>
+        <v>0.166766</v>
       </c>
       <c r="D166" t="n">
-        <v>0.160541</v>
+        <v>0.191586</v>
       </c>
       <c r="E166" t="n">
-        <v>0.15413</v>
+        <v>0.166766</v>
       </c>
       <c r="F166" t="n">
-        <v>0.160541</v>
+        <v>0.191586</v>
       </c>
     </row>
     <row r="167">
@@ -13765,16 +13765,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.047431</v>
+        <v>0.049118</v>
       </c>
       <c r="D167" t="n">
-        <v>0.048814</v>
+        <v>0.06068</v>
       </c>
       <c r="E167" t="n">
-        <v>0.047431</v>
+        <v>0.049118</v>
       </c>
       <c r="F167" t="n">
-        <v>0.048814</v>
+        <v>0.06068</v>
       </c>
     </row>
     <row r="168">
@@ -13787,16 +13787,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.05446</v>
+        <v>0.056779</v>
       </c>
       <c r="D168" t="n">
-        <v>0.056089</v>
+        <v>0.069303</v>
       </c>
       <c r="E168" t="n">
-        <v>0.05446</v>
+        <v>0.056779</v>
       </c>
       <c r="F168" t="n">
-        <v>0.056089</v>
+        <v>0.069303</v>
       </c>
     </row>
     <row r="169">
@@ -13809,16 +13809,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.223191</v>
+        <v>0.235535</v>
       </c>
       <c r="D169" t="n">
-        <v>0.22585</v>
+        <v>0.276316</v>
       </c>
       <c r="E169" t="n">
-        <v>0.223191</v>
+        <v>0.235535</v>
       </c>
       <c r="F169" t="n">
-        <v>0.22585</v>
+        <v>0.276316</v>
       </c>
     </row>
     <row r="170">
@@ -13831,10 +13831,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-0.023597</v>
+        <v>-0.026621</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.023113</v>
+        <v>-0.026462</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -13853,16 +13853,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.292392</v>
+        <v>0.310791</v>
       </c>
       <c r="D171" t="n">
-        <v>0.297319</v>
+        <v>0.361218</v>
       </c>
       <c r="E171" t="n">
-        <v>0.292392</v>
+        <v>0.310791</v>
       </c>
       <c r="F171" t="n">
-        <v>0.297319</v>
+        <v>0.361218</v>
       </c>
     </row>
     <row r="172">
@@ -13875,16 +13875,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.038602</v>
+        <v>0.042889</v>
       </c>
       <c r="D172" t="n">
-        <v>0.042898</v>
+        <v>0.049848</v>
       </c>
       <c r="E172" t="n">
-        <v>0.038602</v>
+        <v>0.042889</v>
       </c>
       <c r="F172" t="n">
-        <v>0.042898</v>
+        <v>0.049848</v>
       </c>
     </row>
     <row r="173">
@@ -13897,16 +13897,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.023407</v>
+        <v>0.025622</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0265</v>
+        <v>0.031205</v>
       </c>
       <c r="E173" t="n">
-        <v>0.023407</v>
+        <v>0.025622</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0265</v>
+        <v>0.031205</v>
       </c>
     </row>
     <row r="174">
@@ -13919,10 +13919,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-0.017915</v>
+        <v>-0.021147</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.017312</v>
+        <v>-0.018752</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -13941,10 +13941,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-0.021609</v>
+        <v>-0.025036</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.021434</v>
+        <v>-0.02381</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -13963,10 +13963,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-0.020369</v>
+        <v>-0.023732</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.020051</v>
+        <v>-0.022113</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -13985,16 +13985,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.081815</v>
+        <v>0.09046</v>
       </c>
       <c r="D177" t="n">
-        <v>0.088075</v>
+        <v>0.102865</v>
       </c>
       <c r="E177" t="n">
-        <v>0.081815</v>
+        <v>0.09046</v>
       </c>
       <c r="F177" t="n">
-        <v>0.088075</v>
+        <v>0.102865</v>
       </c>
     </row>
     <row r="178">
@@ -14007,16 +14007,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.048728</v>
+        <v>0.049943</v>
       </c>
       <c r="D178" t="n">
-        <v>0.049597</v>
+        <v>0.062272</v>
       </c>
       <c r="E178" t="n">
-        <v>0.048728</v>
+        <v>0.049943</v>
       </c>
       <c r="F178" t="n">
-        <v>0.049597</v>
+        <v>0.062272</v>
       </c>
     </row>
     <row r="179">
@@ -14029,16 +14029,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.032377</v>
+        <v>0.032421</v>
       </c>
       <c r="D179" t="n">
-        <v>0.032957</v>
+        <v>0.042211</v>
       </c>
       <c r="E179" t="n">
-        <v>0.032377</v>
+        <v>0.032421</v>
       </c>
       <c r="F179" t="n">
-        <v>0.032957</v>
+        <v>0.042211</v>
       </c>
     </row>
     <row r="180">
@@ -14051,16 +14051,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.04644</v>
+        <v>0.047757</v>
       </c>
       <c r="D180" t="n">
-        <v>0.047521</v>
+        <v>0.059464</v>
       </c>
       <c r="E180" t="n">
-        <v>0.04644</v>
+        <v>0.047757</v>
       </c>
       <c r="F180" t="n">
-        <v>0.047521</v>
+        <v>0.059464</v>
       </c>
     </row>
     <row r="181">
@@ -14073,10 +14073,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-0.021633</v>
+        <v>-0.025062</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.021322</v>
+        <v>-0.023672</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -14095,16 +14095,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.020843</v>
+        <v>0.022802</v>
       </c>
       <c r="D182" t="n">
-        <v>0.023822</v>
+        <v>0.028059</v>
       </c>
       <c r="E182" t="n">
-        <v>0.020843</v>
+        <v>0.022802</v>
       </c>
       <c r="F182" t="n">
-        <v>0.023822</v>
+        <v>0.028059</v>
       </c>
     </row>
     <row r="183">
@@ -14117,10 +14117,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>-0.026015</v>
+        <v>-0.029429</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.025293</v>
+        <v>-0.028916</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -14139,10 +14139,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-0.009364000000000001</v>
+        <v>-0.011182</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.008451</v>
+        <v>-0.009001</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -14161,16 +14161,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.060038</v>
+        <v>0.060937</v>
       </c>
       <c r="D185" t="n">
-        <v>0.061602</v>
+        <v>0.078066</v>
       </c>
       <c r="E185" t="n">
-        <v>0.060038</v>
+        <v>0.060937</v>
       </c>
       <c r="F185" t="n">
-        <v>0.061602</v>
+        <v>0.078066</v>
       </c>
     </row>
     <row r="186">
@@ -14183,16 +14183,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.007375</v>
+        <v>0.011045</v>
       </c>
       <c r="D186" t="n">
-        <v>0.012657</v>
+        <v>0.011535</v>
       </c>
       <c r="E186" t="n">
-        <v>0.007375</v>
+        <v>0.011045</v>
       </c>
       <c r="F186" t="n">
-        <v>0.012657</v>
+        <v>0.011535</v>
       </c>
     </row>
     <row r="187">
@@ -14205,16 +14205,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.007578</v>
+        <v>0.011324</v>
       </c>
       <c r="D187" t="n">
-        <v>0.012922</v>
+        <v>0.011786</v>
       </c>
       <c r="E187" t="n">
-        <v>0.007578</v>
+        <v>0.011324</v>
       </c>
       <c r="F187" t="n">
-        <v>0.012922</v>
+        <v>0.011786</v>
       </c>
     </row>
     <row r="188">
@@ -14227,16 +14227,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.026333</v>
+        <v>0.028866</v>
       </c>
       <c r="D188" t="n">
-        <v>0.029581</v>
+        <v>0.034796</v>
       </c>
       <c r="E188" t="n">
-        <v>0.026333</v>
+        <v>0.028866</v>
       </c>
       <c r="F188" t="n">
-        <v>0.029581</v>
+        <v>0.034796</v>
       </c>
     </row>
     <row r="189">
@@ -14249,16 +14249,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.349076</v>
+        <v>0.369577</v>
       </c>
       <c r="D189" t="n">
-        <v>0.353146</v>
+        <v>0.430762</v>
       </c>
       <c r="E189" t="n">
-        <v>0.349076</v>
+        <v>0.369577</v>
       </c>
       <c r="F189" t="n">
-        <v>0.353146</v>
+        <v>0.430762</v>
       </c>
     </row>
     <row r="190">
@@ -14271,16 +14271,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.246935</v>
+        <v>0.265529</v>
       </c>
       <c r="D190" t="n">
-        <v>0.254334</v>
+        <v>0.305447</v>
       </c>
       <c r="E190" t="n">
-        <v>0.246935</v>
+        <v>0.265529</v>
       </c>
       <c r="F190" t="n">
-        <v>0.254334</v>
+        <v>0.305447</v>
       </c>
     </row>
     <row r="191">
@@ -14293,16 +14293,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.143421</v>
+        <v>0.148738</v>
       </c>
       <c r="D191" t="n">
-        <v>0.143608</v>
+        <v>0.178677</v>
       </c>
       <c r="E191" t="n">
-        <v>0.143421</v>
+        <v>0.148738</v>
       </c>
       <c r="F191" t="n">
-        <v>0.143608</v>
+        <v>0.178677</v>
       </c>
     </row>
     <row r="192">
@@ -14315,10 +14315,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-0.012123</v>
+        <v>-0.014906</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.011988</v>
+        <v>-0.012386</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -14337,16 +14337,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.281294</v>
+        <v>0.300811</v>
       </c>
       <c r="D193" t="n">
-        <v>0.287841</v>
+        <v>0.347601</v>
       </c>
       <c r="E193" t="n">
-        <v>0.281294</v>
+        <v>0.300811</v>
       </c>
       <c r="F193" t="n">
-        <v>0.287841</v>
+        <v>0.347601</v>
       </c>
     </row>
     <row r="194">
@@ -14359,10 +14359,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-0.017898</v>
+        <v>-0.021129</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.016935</v>
+        <v>-0.01829</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -14381,16 +14381,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.117479</v>
+        <v>0.121473</v>
       </c>
       <c r="D195" t="n">
-        <v>0.117528</v>
+        <v>0.14662</v>
       </c>
       <c r="E195" t="n">
-        <v>0.117479</v>
+        <v>0.121473</v>
       </c>
       <c r="F195" t="n">
-        <v>0.117528</v>
+        <v>0.14662</v>
       </c>
     </row>
     <row r="196">
@@ -14403,10 +14403,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-0.016004</v>
+        <v>-0.018938</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.015817</v>
+        <v>-0.017147</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -14425,10 +14425,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>-0.016004</v>
+        <v>-0.018938</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.015817</v>
+        <v>-0.017147</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -14447,10 +14447,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-0.018341</v>
+        <v>-0.021596</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.017931</v>
+        <v>-0.019511</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -14469,10 +14469,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-0.018348</v>
+        <v>-0.021603</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.017935</v>
+        <v>-0.019516</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -14491,10 +14491,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-0.018341</v>
+        <v>-0.021596</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.017931</v>
+        <v>-0.019511</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -14513,16 +14513,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.073959</v>
+        <v>0.08229599999999999</v>
       </c>
       <c r="D201" t="n">
-        <v>0.080322</v>
+        <v>0.093226</v>
       </c>
       <c r="E201" t="n">
-        <v>0.073959</v>
+        <v>0.08229599999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>0.080322</v>
+        <v>0.093226</v>
       </c>
     </row>
     <row r="202">
@@ -14535,16 +14535,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.065285</v>
+        <v>0.06995999999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>0.068607</v>
+        <v>0.08258500000000001</v>
       </c>
       <c r="E202" t="n">
-        <v>0.065285</v>
+        <v>0.06995999999999999</v>
       </c>
       <c r="F202" t="n">
-        <v>0.068607</v>
+        <v>0.08258500000000001</v>
       </c>
     </row>
   </sheetData>
